--- a/raw_data/20200818_saline/20200818_Sensor3_Test_54.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_54.xlsx
@@ -1,538 +1,954 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83AD6A26-AA96-4D3B-876D-7A4233CDEEC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>48259.453967</v>
+        <v>48259.453967000001</v>
       </c>
       <c r="B2" s="1">
-        <v>13.405404</v>
+        <v>13.405404000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1144.510000</v>
+        <v>1144.51</v>
       </c>
       <c r="D2" s="1">
-        <v>-245.854000</v>
+        <v>-245.85400000000001</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>48269.742979</v>
+        <v>48269.742979000002</v>
       </c>
       <c r="G2" s="1">
-        <v>13.408262</v>
+        <v>13.408262000000001</v>
       </c>
       <c r="H2" s="1">
-        <v>1165.450000</v>
+        <v>1165.45</v>
       </c>
       <c r="I2" s="1">
-        <v>-208.103000</v>
+        <v>-208.10300000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>48280.198147</v>
+        <v>48280.198147000003</v>
       </c>
       <c r="L2" s="1">
         <v>13.411166</v>
       </c>
       <c r="M2" s="1">
-        <v>1194.090000</v>
+        <v>1194.0899999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-147.566000</v>
+        <v>-147.566</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>48290.691510</v>
+        <v>48290.691509999997</v>
       </c>
       <c r="Q2" s="1">
-        <v>13.414081</v>
+        <v>13.414080999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1202.310000</v>
+        <v>1202.31</v>
       </c>
       <c r="S2" s="1">
-        <v>-125.722000</v>
+        <v>-125.72199999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>48301.269687</v>
@@ -541,602 +957,602 @@
         <v>13.417019</v>
       </c>
       <c r="W2" s="1">
-        <v>1210.560000</v>
+        <v>1210.56</v>
       </c>
       <c r="X2" s="1">
-        <v>-106.005000</v>
+        <v>-106.005</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>48311.734282</v>
+        <v>48311.734281999998</v>
       </c>
       <c r="AA2" s="1">
         <v>13.419926</v>
       </c>
       <c r="AB2" s="1">
-        <v>1218.790000</v>
+        <v>1218.79</v>
       </c>
       <c r="AC2" s="1">
-        <v>-89.822800</v>
+        <v>-89.822800000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>48322.955770</v>
+        <v>48322.95577</v>
       </c>
       <c r="AF2" s="1">
         <v>13.423043</v>
       </c>
       <c r="AG2" s="1">
-        <v>1223.710000</v>
+        <v>1223.71</v>
       </c>
       <c r="AH2" s="1">
-        <v>-85.699000</v>
+        <v>-85.698999999999998</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>48333.330094</v>
+        <v>48333.330093999997</v>
       </c>
       <c r="AK2" s="1">
-        <v>13.425925</v>
+        <v>13.425924999999999</v>
       </c>
       <c r="AL2" s="1">
-        <v>1231.040000</v>
+        <v>1231.04</v>
       </c>
       <c r="AM2" s="1">
-        <v>-89.476700</v>
+        <v>-89.476699999999994</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>48343.847300</v>
+        <v>48343.847300000001</v>
       </c>
       <c r="AP2" s="1">
         <v>13.428846</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1239.090000</v>
+        <v>1239.0899999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-101.719000</v>
+        <v>-101.71899999999999</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>48354.840098</v>
+        <v>48354.840098000001</v>
       </c>
       <c r="AU2" s="1">
-        <v>13.431900</v>
+        <v>13.431900000000001</v>
       </c>
       <c r="AV2" s="1">
-        <v>1249.130000</v>
+        <v>1249.1300000000001</v>
       </c>
       <c r="AW2" s="1">
-        <v>-121.389000</v>
+        <v>-121.389</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>48366.003555</v>
+        <v>48366.003555000003</v>
       </c>
       <c r="AZ2" s="1">
         <v>13.435001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1257.640000</v>
+        <v>1257.6400000000001</v>
       </c>
       <c r="BB2" s="1">
-        <v>-139.034000</v>
+        <v>-139.03399999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>48377.279604</v>
+        <v>48377.279604000003</v>
       </c>
       <c r="BE2" s="1">
-        <v>13.438133</v>
+        <v>13.438133000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1297.910000</v>
+        <v>1297.9100000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-221.940000</v>
+        <v>-221.94</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>48388.047254</v>
+        <v>48388.047253999997</v>
       </c>
       <c r="BJ2" s="1">
         <v>13.441124</v>
       </c>
       <c r="BK2" s="1">
-        <v>1367.860000</v>
+        <v>1367.86</v>
       </c>
       <c r="BL2" s="1">
-        <v>-359.838000</v>
+        <v>-359.83800000000002</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>48398.851607</v>
+        <v>48398.851606999997</v>
       </c>
       <c r="BO2" s="1">
         <v>13.444125</v>
       </c>
       <c r="BP2" s="1">
-        <v>1482.710000</v>
+        <v>1482.71</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-584.652000</v>
+        <v>-584.65200000000004</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>48409.600446</v>
+        <v>48409.600445999997</v>
       </c>
       <c r="BT2" s="1">
         <v>13.447111</v>
       </c>
       <c r="BU2" s="1">
-        <v>1616.170000</v>
+        <v>1616.17</v>
       </c>
       <c r="BV2" s="1">
-        <v>-838.882000</v>
+        <v>-838.88199999999995</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>48420.298620</v>
+        <v>48420.298620000001</v>
       </c>
       <c r="BY2" s="1">
-        <v>13.450083</v>
+        <v>13.450082999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1769.020000</v>
+        <v>1769.02</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1115.210000</v>
+        <v>-1115.21</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>48431.357916</v>
+        <v>48431.357916000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>13.453155</v>
+        <v>13.453155000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>2190.940000</v>
+        <v>2190.94</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1787.250000</v>
+        <v>-1787.25</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>48259.842336</v>
+        <v>48259.842336000002</v>
       </c>
       <c r="B3" s="1">
         <v>13.405512</v>
       </c>
       <c r="C3" s="1">
-        <v>1144.480000</v>
+        <v>1144.48</v>
       </c>
       <c r="D3" s="1">
-        <v>-246.127000</v>
+        <v>-246.12700000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
         <v>48270.130353</v>
       </c>
       <c r="G3" s="1">
-        <v>13.408370</v>
+        <v>13.40837</v>
       </c>
       <c r="H3" s="1">
-        <v>1165.800000</v>
+        <v>1165.8</v>
       </c>
       <c r="I3" s="1">
-        <v>-207.859000</v>
+        <v>-207.85900000000001</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>48280.559235</v>
+        <v>48280.559235000001</v>
       </c>
       <c r="L3" s="1">
-        <v>13.411266</v>
+        <v>13.411265999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>1194.120000</v>
+        <v>1194.1199999999999</v>
       </c>
       <c r="N3" s="1">
-        <v>-147.345000</v>
+        <v>-147.345</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>48291.070454</v>
+        <v>48291.070454000001</v>
       </c>
       <c r="Q3" s="1">
-        <v>13.414186</v>
+        <v>13.414186000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>1202.440000</v>
+        <v>1202.44</v>
       </c>
       <c r="S3" s="1">
-        <v>-125.771000</v>
+        <v>-125.771</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>48301.647676</v>
+        <v>48301.647676000001</v>
       </c>
       <c r="V3" s="1">
-        <v>13.417124</v>
+        <v>13.417123999999999</v>
       </c>
       <c r="W3" s="1">
-        <v>1210.650000</v>
+        <v>1210.6500000000001</v>
       </c>
       <c r="X3" s="1">
-        <v>-106.005000</v>
+        <v>-106.005</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>48312.460921</v>
+        <v>48312.460920999998</v>
       </c>
       <c r="AA3" s="1">
         <v>13.420128</v>
       </c>
       <c r="AB3" s="1">
-        <v>1218.820000</v>
+        <v>1218.82</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.752700</v>
+        <v>-89.752700000000004</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>48323.299498</v>
       </c>
       <c r="AF3" s="1">
-        <v>13.423139</v>
+        <v>13.423139000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1223.740000</v>
+        <v>1223.74</v>
       </c>
       <c r="AH3" s="1">
-        <v>-85.697900</v>
+        <v>-85.697900000000004</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
         <v>48333.673357</v>
       </c>
       <c r="AK3" s="1">
-        <v>13.426020</v>
+        <v>13.426019999999999</v>
       </c>
       <c r="AL3" s="1">
-        <v>1231.050000</v>
+        <v>1231.05</v>
       </c>
       <c r="AM3" s="1">
-        <v>-89.500300</v>
+        <v>-89.500299999999996</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>48344.226238</v>
+        <v>48344.226238000003</v>
       </c>
       <c r="AP3" s="1">
-        <v>13.428952</v>
+        <v>13.428952000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1239.070000</v>
+        <v>1239.07</v>
       </c>
       <c r="AR3" s="1">
-        <v>-101.726000</v>
+        <v>-101.726</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>48355.529573</v>
       </c>
       <c r="AU3" s="1">
-        <v>13.432092</v>
+        <v>13.432092000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1249.160000</v>
+        <v>1249.1600000000001</v>
       </c>
       <c r="AW3" s="1">
-        <v>-121.349000</v>
+        <v>-121.349</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>48366.690053</v>
+        <v>48366.690052999998</v>
       </c>
       <c r="AZ3" s="1">
-        <v>13.435192</v>
+        <v>13.435192000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1257.650000</v>
+        <v>1257.6500000000001</v>
       </c>
       <c r="BB3" s="1">
-        <v>-139.037000</v>
+        <v>-139.03700000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>48377.712116</v>
+        <v>48377.712116000002</v>
       </c>
       <c r="BE3" s="1">
         <v>13.438253</v>
       </c>
       <c r="BF3" s="1">
-        <v>1297.890000</v>
+        <v>1297.8900000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-221.894000</v>
+        <v>-221.89400000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>48388.424242</v>
+        <v>48388.424242000001</v>
       </c>
       <c r="BJ3" s="1">
         <v>13.441229</v>
       </c>
       <c r="BK3" s="1">
-        <v>1367.870000</v>
+        <v>1367.87</v>
       </c>
       <c r="BL3" s="1">
-        <v>-359.806000</v>
+        <v>-359.80599999999998</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>48399.293575</v>
+        <v>48399.293575000003</v>
       </c>
       <c r="BO3" s="1">
         <v>13.444248</v>
       </c>
       <c r="BP3" s="1">
-        <v>1482.780000</v>
+        <v>1482.78</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-584.673000</v>
+        <v>-584.673</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>48410.034755</v>
+        <v>48410.034755000001</v>
       </c>
       <c r="BT3" s="1">
         <v>13.447232</v>
       </c>
       <c r="BU3" s="1">
-        <v>1616.050000</v>
+        <v>1616.05</v>
       </c>
       <c r="BV3" s="1">
-        <v>-838.687000</v>
+        <v>-838.68700000000001</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>48420.782745</v>
+        <v>48420.782744999997</v>
       </c>
       <c r="BY3" s="1">
         <v>13.450217</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1769.210000</v>
+        <v>1769.21</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1115.350000</v>
+        <v>-1115.3499999999999</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>48431.914957</v>
+        <v>48431.914957000001</v>
       </c>
       <c r="CD3" s="1">
-        <v>13.453310</v>
+        <v>13.45331</v>
       </c>
       <c r="CE3" s="1">
-        <v>2192.570000</v>
+        <v>2192.5700000000002</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1786.020000</v>
+        <v>-1786.02</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>48260.184078</v>
+        <v>48260.184077999998</v>
       </c>
       <c r="B4" s="1">
         <v>13.405607</v>
       </c>
       <c r="C4" s="1">
-        <v>1144.440000</v>
+        <v>1144.44</v>
       </c>
       <c r="D4" s="1">
-        <v>-245.776000</v>
+        <v>-245.77600000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>48270.472593</v>
+        <v>48270.472592999999</v>
       </c>
       <c r="G4" s="1">
         <v>13.408465</v>
       </c>
       <c r="H4" s="1">
-        <v>1165.370000</v>
+        <v>1165.3699999999999</v>
       </c>
       <c r="I4" s="1">
-        <v>-208.698000</v>
+        <v>-208.69800000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>48280.904946</v>
+        <v>48280.904946000002</v>
       </c>
       <c r="L4" s="1">
         <v>13.411362</v>
       </c>
       <c r="M4" s="1">
-        <v>1194.320000</v>
+        <v>1194.32</v>
       </c>
       <c r="N4" s="1">
-        <v>-147.793000</v>
+        <v>-147.79300000000001</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>48291.764884</v>
+        <v>48291.764883999997</v>
       </c>
       <c r="Q4" s="1">
         <v>13.414379</v>
       </c>
       <c r="R4" s="1">
-        <v>1202.410000</v>
+        <v>1202.4100000000001</v>
       </c>
       <c r="S4" s="1">
-        <v>-125.826000</v>
+        <v>-125.82599999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>48302.333640</v>
+        <v>48302.333639999997</v>
       </c>
       <c r="V4" s="1">
         <v>13.417315</v>
       </c>
       <c r="W4" s="1">
-        <v>1210.640000</v>
+        <v>1210.6400000000001</v>
       </c>
       <c r="X4" s="1">
-        <v>-106.028000</v>
+        <v>-106.02800000000001</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>48312.809846</v>
+        <v>48312.809845999996</v>
       </c>
       <c r="AA4" s="1">
         <v>13.420225</v>
       </c>
       <c r="AB4" s="1">
-        <v>1218.860000</v>
+        <v>1218.8599999999999</v>
       </c>
       <c r="AC4" s="1">
-        <v>-89.809600</v>
+        <v>-89.809600000000003</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>48323.641770</v>
+        <v>48323.641770000002</v>
       </c>
       <c r="AF4" s="1">
-        <v>13.423234</v>
+        <v>13.423234000000001</v>
       </c>
       <c r="AG4" s="1">
-        <v>1223.750000</v>
+        <v>1223.75</v>
       </c>
       <c r="AH4" s="1">
-        <v>-85.624400</v>
+        <v>-85.624399999999994</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>48334.022044</v>
+        <v>48334.022043999998</v>
       </c>
       <c r="AK4" s="1">
         <v>13.426117</v>
       </c>
       <c r="AL4" s="1">
-        <v>1231.010000</v>
+        <v>1231.01</v>
       </c>
       <c r="AM4" s="1">
-        <v>-89.486900</v>
+        <v>-89.486900000000006</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>48344.896333</v>
+        <v>48344.896332999997</v>
       </c>
       <c r="AP4" s="1">
         <v>13.429138</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1239.100000</v>
+        <v>1239.0999999999999</v>
       </c>
       <c r="AR4" s="1">
-        <v>-101.721000</v>
+        <v>-101.721</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>48355.945712</v>
+        <v>48355.945712000001</v>
       </c>
       <c r="AU4" s="1">
         <v>13.432207</v>
       </c>
       <c r="AV4" s="1">
-        <v>1249.140000</v>
+        <v>1249.1400000000001</v>
       </c>
       <c r="AW4" s="1">
-        <v>-121.343000</v>
+        <v>-121.343</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
         <v>48367.099745</v>
@@ -1145,542 +1561,542 @@
         <v>13.435305</v>
       </c>
       <c r="BA4" s="1">
-        <v>1257.650000</v>
+        <v>1257.6500000000001</v>
       </c>
       <c r="BB4" s="1">
-        <v>-139.069000</v>
+        <v>-139.06899999999999</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>48378.076675</v>
+        <v>48378.076674999997</v>
       </c>
       <c r="BE4" s="1">
         <v>13.438355</v>
       </c>
       <c r="BF4" s="1">
-        <v>1297.900000</v>
+        <v>1297.9000000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-221.925000</v>
+        <v>-221.92500000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>48388.799189</v>
+        <v>48388.799188999998</v>
       </c>
       <c r="BJ4" s="1">
         <v>13.441333</v>
       </c>
       <c r="BK4" s="1">
-        <v>1367.850000</v>
+        <v>1367.85</v>
       </c>
       <c r="BL4" s="1">
-        <v>-359.829000</v>
+        <v>-359.82900000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>48399.686869</v>
+        <v>48399.686868999997</v>
       </c>
       <c r="BO4" s="1">
         <v>13.444357</v>
       </c>
       <c r="BP4" s="1">
-        <v>1482.800000</v>
+        <v>1482.8</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-584.718000</v>
+        <v>-584.71799999999996</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
         <v>48410.455017</v>
       </c>
       <c r="BT4" s="1">
-        <v>13.447349</v>
+        <v>13.447349000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1615.890000</v>
+        <v>1615.89</v>
       </c>
       <c r="BV4" s="1">
-        <v>-838.422000</v>
+        <v>-838.42200000000003</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>48421.225673</v>
+        <v>48421.225673000001</v>
       </c>
       <c r="BY4" s="1">
-        <v>13.450340</v>
+        <v>13.450340000000001</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1769.240000</v>
+        <v>1769.24</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1115.310000</v>
+        <v>-1115.31</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>48432.439194</v>
+        <v>48432.439193999999</v>
       </c>
       <c r="CD4" s="1">
         <v>13.453455</v>
       </c>
       <c r="CE4" s="1">
-        <v>2190.240000</v>
+        <v>2190.2399999999998</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1785.280000</v>
+        <v>-1785.28</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>48260.524334</v>
+        <v>48260.524334000002</v>
       </c>
       <c r="B5" s="1">
-        <v>13.405701</v>
+        <v>13.405701000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1144.400000</v>
+        <v>1144.4000000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-245.877000</v>
+        <v>-245.87700000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>48271.160048</v>
+        <v>48271.160047999998</v>
       </c>
       <c r="G5" s="1">
-        <v>13.408656</v>
+        <v>13.408656000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1164.770000</v>
+        <v>1164.77</v>
       </c>
       <c r="I5" s="1">
-        <v>-208.123000</v>
+        <v>-208.12299999999999</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>48281.594883</v>
+        <v>48281.594882999998</v>
       </c>
       <c r="L5" s="1">
-        <v>13.411554</v>
+        <v>13.411554000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>1194.410000</v>
+        <v>1194.4100000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-147.464000</v>
+        <v>-147.464</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>48292.114533</v>
       </c>
       <c r="Q5" s="1">
-        <v>13.414476</v>
+        <v>13.414476000000001</v>
       </c>
       <c r="R5" s="1">
-        <v>1202.320000</v>
+        <v>1202.32</v>
       </c>
       <c r="S5" s="1">
-        <v>-125.764000</v>
+        <v>-125.764</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>48302.677334</v>
       </c>
       <c r="V5" s="1">
-        <v>13.417410</v>
+        <v>13.41741</v>
       </c>
       <c r="W5" s="1">
-        <v>1210.600000</v>
+        <v>1210.5999999999999</v>
       </c>
       <c r="X5" s="1">
-        <v>-106.064000</v>
+        <v>-106.06399999999999</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>48313.157835</v>
+        <v>48313.157834999998</v>
       </c>
       <c r="AA5" s="1">
-        <v>13.420322</v>
+        <v>13.420322000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1218.900000</v>
+        <v>1218.9000000000001</v>
       </c>
       <c r="AC5" s="1">
-        <v>-89.865400</v>
+        <v>-89.865399999999994</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>48324.296458</v>
+        <v>48324.296457999997</v>
       </c>
       <c r="AF5" s="1">
         <v>13.423416</v>
       </c>
       <c r="AG5" s="1">
-        <v>1223.730000</v>
+        <v>1223.73</v>
       </c>
       <c r="AH5" s="1">
-        <v>-85.701100</v>
+        <v>-85.701099999999997</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>48334.693597</v>
+        <v>48334.693596999998</v>
       </c>
       <c r="AK5" s="1">
         <v>13.426304</v>
       </c>
       <c r="AL5" s="1">
-        <v>1231.010000</v>
+        <v>1231.01</v>
       </c>
       <c r="AM5" s="1">
-        <v>-89.434400</v>
+        <v>-89.434399999999997</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>48345.334269</v>
+        <v>48345.334268999999</v>
       </c>
       <c r="AP5" s="1">
-        <v>13.429260</v>
+        <v>13.429259999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1239.070000</v>
+        <v>1239.07</v>
       </c>
       <c r="AR5" s="1">
-        <v>-101.728000</v>
+        <v>-101.72799999999999</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>48356.335535</v>
+        <v>48356.335534999998</v>
       </c>
       <c r="AU5" s="1">
-        <v>13.432315</v>
+        <v>13.432314999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1249.130000</v>
+        <v>1249.1300000000001</v>
       </c>
       <c r="AW5" s="1">
-        <v>-121.361000</v>
+        <v>-121.361</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>48367.483617</v>
+        <v>48367.483616999998</v>
       </c>
       <c r="AZ5" s="1">
-        <v>13.435412</v>
+        <v>13.435411999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1257.640000</v>
+        <v>1257.6400000000001</v>
       </c>
       <c r="BB5" s="1">
-        <v>-139.050000</v>
+        <v>-139.05000000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>48378.435283</v>
+        <v>48378.435282999999</v>
       </c>
       <c r="BE5" s="1">
         <v>13.438454</v>
       </c>
       <c r="BF5" s="1">
-        <v>1297.940000</v>
+        <v>1297.94</v>
       </c>
       <c r="BG5" s="1">
-        <v>-221.874000</v>
+        <v>-221.874</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>48389.213379</v>
+        <v>48389.213379000001</v>
       </c>
       <c r="BJ5" s="1">
-        <v>13.441448</v>
+        <v>13.441447999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1367.840000</v>
+        <v>1367.84</v>
       </c>
       <c r="BL5" s="1">
-        <v>-359.835000</v>
+        <v>-359.83499999999998</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>48400.102021</v>
+        <v>48400.102020999999</v>
       </c>
       <c r="BO5" s="1">
         <v>13.444473</v>
       </c>
       <c r="BP5" s="1">
-        <v>1482.760000</v>
+        <v>1482.76</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-584.744000</v>
+        <v>-584.74400000000003</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>48410.883559</v>
+        <v>48410.883559000002</v>
       </c>
       <c r="BT5" s="1">
-        <v>13.447468</v>
+        <v>13.447468000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1615.780000</v>
+        <v>1615.78</v>
       </c>
       <c r="BV5" s="1">
-        <v>-838.295000</v>
+        <v>-838.29499999999996</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>48421.686426</v>
       </c>
       <c r="BY5" s="1">
-        <v>13.450468</v>
+        <v>13.450468000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1769.060000</v>
+        <v>1769.06</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1115.240000</v>
+        <v>-1115.24</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>48432.976393</v>
+        <v>48432.976392999997</v>
       </c>
       <c r="CD5" s="1">
         <v>13.453605</v>
       </c>
       <c r="CE5" s="1">
-        <v>2191.590000</v>
+        <v>2191.59</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1787.280000</v>
+        <v>-1787.28</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>48261.209343</v>
+        <v>48261.209343000002</v>
       </c>
       <c r="B6" s="1">
         <v>13.405891</v>
       </c>
       <c r="C6" s="1">
-        <v>1144.110000</v>
+        <v>1144.1099999999999</v>
       </c>
       <c r="D6" s="1">
-        <v>-245.654000</v>
+        <v>-245.654</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>48271.505262</v>
+        <v>48271.505261999999</v>
       </c>
       <c r="G6" s="1">
-        <v>13.408751</v>
+        <v>13.408751000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>1165.620000</v>
+        <v>1165.6199999999999</v>
       </c>
       <c r="I6" s="1">
-        <v>-207.239000</v>
+        <v>-207.239</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>48281.939634</v>
+        <v>48281.939634000002</v>
       </c>
       <c r="L6" s="1">
-        <v>13.411650</v>
+        <v>13.41165</v>
       </c>
       <c r="M6" s="1">
-        <v>1194.110000</v>
+        <v>1194.1099999999999</v>
       </c>
       <c r="N6" s="1">
-        <v>-147.600000</v>
+        <v>-147.6</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>48292.461901</v>
+        <v>48292.461901000002</v>
       </c>
       <c r="Q6" s="1">
-        <v>13.414573</v>
+        <v>13.414573000000001</v>
       </c>
       <c r="R6" s="1">
-        <v>1202.320000</v>
+        <v>1202.32</v>
       </c>
       <c r="S6" s="1">
-        <v>-125.836000</v>
+        <v>-125.836</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>48303.321172</v>
+        <v>48303.321172000004</v>
       </c>
       <c r="V6" s="1">
         <v>13.417589</v>
       </c>
       <c r="W6" s="1">
-        <v>1210.770000</v>
+        <v>1210.77</v>
       </c>
       <c r="X6" s="1">
-        <v>-106.037000</v>
+        <v>-106.03700000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>48313.825447</v>
+        <v>48313.825447000003</v>
       </c>
       <c r="AA6" s="1">
-        <v>13.420507</v>
+        <v>13.420507000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1218.780000</v>
+        <v>1218.78</v>
       </c>
       <c r="AC6" s="1">
-        <v>-89.807500</v>
+        <v>-89.807500000000005</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>48324.671464</v>
+        <v>48324.671463999999</v>
       </c>
       <c r="AF6" s="1">
-        <v>13.423520</v>
+        <v>13.42352</v>
       </c>
       <c r="AG6" s="1">
-        <v>1223.780000</v>
+        <v>1223.78</v>
       </c>
       <c r="AH6" s="1">
-        <v>-85.725800</v>
+        <v>-85.725800000000007</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>48335.066586</v>
+        <v>48335.066586000001</v>
       </c>
       <c r="AK6" s="1">
-        <v>13.426407</v>
+        <v>13.426406999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1231.020000</v>
+        <v>1231.02</v>
       </c>
       <c r="AM6" s="1">
-        <v>-89.487600</v>
+        <v>-89.4876</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>48345.694366</v>
+        <v>48345.694366000003</v>
       </c>
       <c r="AP6" s="1">
-        <v>13.429360</v>
+        <v>13.429360000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1239.080000</v>
+        <v>1239.08</v>
       </c>
       <c r="AR6" s="1">
-        <v>-101.718000</v>
+        <v>-101.718</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>48356.699134</v>
+        <v>48356.699134000002</v>
       </c>
       <c r="AU6" s="1">
         <v>13.432416</v>
       </c>
       <c r="AV6" s="1">
-        <v>1249.170000</v>
+        <v>1249.17</v>
       </c>
       <c r="AW6" s="1">
-        <v>-121.356000</v>
+        <v>-121.35599999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>48367.863552</v>
+        <v>48367.863552000003</v>
       </c>
       <c r="AZ6" s="1">
         <v>13.435518</v>
       </c>
       <c r="BA6" s="1">
-        <v>1257.640000</v>
+        <v>1257.6400000000001</v>
       </c>
       <c r="BB6" s="1">
-        <v>-139.054000</v>
+        <v>-139.054</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>48378.862865</v>
+        <v>48378.862865000003</v>
       </c>
       <c r="BE6" s="1">
         <v>13.438573</v>
       </c>
       <c r="BF6" s="1">
-        <v>1297.920000</v>
+        <v>1297.92</v>
       </c>
       <c r="BG6" s="1">
-        <v>-221.902000</v>
+        <v>-221.90199999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>48389.575459</v>
@@ -1689,76 +2105,76 @@
         <v>13.441549</v>
       </c>
       <c r="BK6" s="1">
-        <v>1367.840000</v>
+        <v>1367.84</v>
       </c>
       <c r="BL6" s="1">
-        <v>-359.833000</v>
+        <v>-359.83300000000003</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>48400.506260</v>
+        <v>48400.506260000002</v>
       </c>
       <c r="BO6" s="1">
         <v>13.444585</v>
       </c>
       <c r="BP6" s="1">
-        <v>1482.800000</v>
+        <v>1482.8</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-584.744000</v>
+        <v>-584.74400000000003</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>48411.314118</v>
+        <v>48411.314118000002</v>
       </c>
       <c r="BT6" s="1">
         <v>13.447587</v>
       </c>
       <c r="BU6" s="1">
-        <v>1615.480000</v>
+        <v>1615.48</v>
       </c>
       <c r="BV6" s="1">
-        <v>-838.243000</v>
+        <v>-838.24300000000005</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>48422.131833</v>
+        <v>48422.131832999999</v>
       </c>
       <c r="BY6" s="1">
         <v>13.450592</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1769.170000</v>
+        <v>1769.17</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1115.340000</v>
+        <v>-1115.3399999999999</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>48433.517498</v>
+        <v>48433.517498000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>13.453755</v>
+        <v>13.453754999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>2191.120000</v>
+        <v>2191.12</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1784.620000</v>
+        <v>-1784.62</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
         <v>48261.550593</v>
       </c>
@@ -1766,13 +2182,13 @@
         <v>13.405986</v>
       </c>
       <c r="C7" s="1">
-        <v>1144.110000</v>
+        <v>1144.1099999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-245.806000</v>
+        <v>-245.80600000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>48271.849982</v>
@@ -1781,315 +2197,315 @@
         <v>13.408847</v>
       </c>
       <c r="H7" s="1">
-        <v>1165.270000</v>
+        <v>1165.27</v>
       </c>
       <c r="I7" s="1">
-        <v>-208.709000</v>
+        <v>-208.709</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>48282.286305</v>
+        <v>48282.286305000001</v>
       </c>
       <c r="L7" s="1">
-        <v>13.411746</v>
+        <v>13.411746000000001</v>
       </c>
       <c r="M7" s="1">
-        <v>1194.300000</v>
+        <v>1194.3</v>
       </c>
       <c r="N7" s="1">
-        <v>-147.610000</v>
+        <v>-147.61000000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>48293.137811</v>
+        <v>48293.137811000001</v>
       </c>
       <c r="Q7" s="1">
         <v>13.414761</v>
       </c>
       <c r="R7" s="1">
-        <v>1202.370000</v>
+        <v>1202.3699999999999</v>
       </c>
       <c r="S7" s="1">
-        <v>-125.686000</v>
+        <v>-125.68600000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>48303.710006</v>
+        <v>48303.710006000001</v>
       </c>
       <c r="V7" s="1">
         <v>13.417697</v>
       </c>
       <c r="W7" s="1">
-        <v>1210.620000</v>
+        <v>1210.6199999999999</v>
       </c>
       <c r="X7" s="1">
-        <v>-106.019000</v>
+        <v>-106.01900000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>48314.203399</v>
+        <v>48314.203398999998</v>
       </c>
       <c r="AA7" s="1">
         <v>13.420612</v>
       </c>
       <c r="AB7" s="1">
-        <v>1218.830000</v>
+        <v>1218.83</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.831000</v>
+        <v>-89.831000000000003</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>48325.016649</v>
+        <v>48325.016648999997</v>
       </c>
       <c r="AF7" s="1">
-        <v>13.423616</v>
+        <v>13.423616000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>1223.730000</v>
+        <v>1223.73</v>
       </c>
       <c r="AH7" s="1">
-        <v>-85.717100</v>
+        <v>-85.717100000000002</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>48335.420236</v>
+        <v>48335.420235999998</v>
       </c>
       <c r="AK7" s="1">
         <v>13.426506</v>
       </c>
       <c r="AL7" s="1">
-        <v>1231.050000</v>
+        <v>1231.05</v>
       </c>
       <c r="AM7" s="1">
-        <v>-89.466400</v>
+        <v>-89.466399999999993</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
         <v>48346.054956</v>
       </c>
       <c r="AP7" s="1">
-        <v>13.429460</v>
+        <v>13.429460000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1239.110000</v>
+        <v>1239.1099999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-101.734000</v>
+        <v>-101.73399999999999</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>48357.125694</v>
+        <v>48357.125694000002</v>
       </c>
       <c r="AU7" s="1">
         <v>13.432535</v>
       </c>
       <c r="AV7" s="1">
-        <v>1249.130000</v>
+        <v>1249.1300000000001</v>
       </c>
       <c r="AW7" s="1">
-        <v>-121.355000</v>
+        <v>-121.355</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>48368.286639</v>
+        <v>48368.286638999998</v>
       </c>
       <c r="AZ7" s="1">
         <v>13.435635</v>
       </c>
       <c r="BA7" s="1">
-        <v>1257.610000</v>
+        <v>1257.6099999999999</v>
       </c>
       <c r="BB7" s="1">
-        <v>-139.060000</v>
+        <v>-139.06</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>48379.154160</v>
+        <v>48379.154159999998</v>
       </c>
       <c r="BE7" s="1">
         <v>13.438654</v>
       </c>
       <c r="BF7" s="1">
-        <v>1297.920000</v>
+        <v>1297.92</v>
       </c>
       <c r="BG7" s="1">
-        <v>-221.899000</v>
+        <v>-221.899</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>48389.951890</v>
+        <v>48389.951889999997</v>
       </c>
       <c r="BJ7" s="1">
-        <v>13.441653</v>
+        <v>13.441653000000001</v>
       </c>
       <c r="BK7" s="1">
-        <v>1367.840000</v>
+        <v>1367.84</v>
       </c>
       <c r="BL7" s="1">
-        <v>-359.823000</v>
+        <v>-359.82299999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>48400.926404</v>
+        <v>48400.926403999998</v>
       </c>
       <c r="BO7" s="1">
-        <v>13.444702</v>
+        <v>13.444701999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1482.750000</v>
+        <v>1482.75</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-584.693000</v>
+        <v>-584.69299999999998</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>48411.725271</v>
+        <v>48411.725271000003</v>
       </c>
       <c r="BT7" s="1">
         <v>13.447701</v>
       </c>
       <c r="BU7" s="1">
-        <v>1615.360000</v>
+        <v>1615.36</v>
       </c>
       <c r="BV7" s="1">
-        <v>-838.429000</v>
+        <v>-838.42899999999997</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>48422.589143</v>
+        <v>48422.589142999997</v>
       </c>
       <c r="BY7" s="1">
-        <v>13.450719</v>
+        <v>13.450718999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1769.080000</v>
+        <v>1769.08</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1115.200000</v>
+        <v>-1115.2</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>48434.057144</v>
+        <v>48434.057143999999</v>
       </c>
       <c r="CD7" s="1">
-        <v>13.453905</v>
+        <v>13.453905000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>2190.330000</v>
+        <v>2190.33</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1787.110000</v>
+        <v>-1787.11</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>48261.891307</v>
+        <v>48261.891306999998</v>
       </c>
       <c r="B8" s="1">
         <v>13.406081</v>
       </c>
       <c r="C8" s="1">
-        <v>1144.210000</v>
+        <v>1144.21</v>
       </c>
       <c r="D8" s="1">
-        <v>-245.823000</v>
+        <v>-245.82300000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>48272.505693</v>
+        <v>48272.505692999999</v>
       </c>
       <c r="G8" s="1">
         <v>13.409029</v>
       </c>
       <c r="H8" s="1">
-        <v>1164.900000</v>
+        <v>1164.9000000000001</v>
       </c>
       <c r="I8" s="1">
-        <v>-208.411000</v>
+        <v>-208.411</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>48282.946063</v>
+        <v>48282.946063000003</v>
       </c>
       <c r="L8" s="1">
-        <v>13.411929</v>
+        <v>13.411929000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>1194.320000</v>
+        <v>1194.32</v>
       </c>
       <c r="N8" s="1">
-        <v>-147.432000</v>
+        <v>-147.43199999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>48293.506802</v>
+        <v>48293.506802000004</v>
       </c>
       <c r="Q8" s="1">
         <v>13.414863</v>
       </c>
       <c r="R8" s="1">
-        <v>1202.430000</v>
+        <v>1202.43</v>
       </c>
       <c r="S8" s="1">
-        <v>-125.719000</v>
+        <v>-125.71899999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>48304.052280</v>
+        <v>48304.052280000004</v>
       </c>
       <c r="V8" s="1">
         <v>13.417792</v>
       </c>
       <c r="W8" s="1">
-        <v>1210.680000</v>
+        <v>1210.68</v>
       </c>
       <c r="X8" s="1">
-        <v>-106.009000</v>
+        <v>-106.009</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
         <v>48314.552055</v>
@@ -2098,73 +2514,73 @@
         <v>13.420709</v>
       </c>
       <c r="AB8" s="1">
-        <v>1218.850000</v>
+        <v>1218.8499999999999</v>
       </c>
       <c r="AC8" s="1">
-        <v>-89.832500</v>
+        <v>-89.832499999999996</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>48325.359423</v>
+        <v>48325.359423000002</v>
       </c>
       <c r="AF8" s="1">
-        <v>13.423711</v>
+        <v>13.423711000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1223.780000</v>
+        <v>1223.78</v>
       </c>
       <c r="AH8" s="1">
-        <v>-85.695800</v>
+        <v>-85.695800000000006</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>48335.762969</v>
+        <v>48335.762969000003</v>
       </c>
       <c r="AK8" s="1">
         <v>13.426601</v>
       </c>
       <c r="AL8" s="1">
-        <v>1231.020000</v>
+        <v>1231.02</v>
       </c>
       <c r="AM8" s="1">
-        <v>-89.495900</v>
+        <v>-89.495900000000006</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>48346.476555</v>
+        <v>48346.476555000001</v>
       </c>
       <c r="AP8" s="1">
         <v>13.429577</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1239.100000</v>
+        <v>1239.0999999999999</v>
       </c>
       <c r="AR8" s="1">
-        <v>-101.742000</v>
+        <v>-101.742</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>48357.430703</v>
+        <v>48357.430702999998</v>
       </c>
       <c r="AU8" s="1">
-        <v>13.432620</v>
+        <v>13.43262</v>
       </c>
       <c r="AV8" s="1">
-        <v>1249.160000</v>
+        <v>1249.1600000000001</v>
       </c>
       <c r="AW8" s="1">
-        <v>-121.355000</v>
+        <v>-121.355</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
         <v>48368.581263</v>
@@ -2173,1450 +2589,1450 @@
         <v>13.435717</v>
       </c>
       <c r="BA8" s="1">
-        <v>1257.620000</v>
+        <v>1257.6199999999999</v>
       </c>
       <c r="BB8" s="1">
-        <v>-139.076000</v>
+        <v>-139.07599999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>48379.523504</v>
+        <v>48379.523503999997</v>
       </c>
       <c r="BE8" s="1">
-        <v>13.438757</v>
+        <v>13.438757000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1297.950000</v>
+        <v>1297.95</v>
       </c>
       <c r="BG8" s="1">
-        <v>-221.864000</v>
+        <v>-221.864</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>48390.328355</v>
+        <v>48390.328354999998</v>
       </c>
       <c r="BJ8" s="1">
         <v>13.441758</v>
       </c>
       <c r="BK8" s="1">
-        <v>1367.830000</v>
+        <v>1367.83</v>
       </c>
       <c r="BL8" s="1">
-        <v>-359.836000</v>
+        <v>-359.83600000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>48401.321683</v>
+        <v>48401.321683000002</v>
       </c>
       <c r="BO8" s="1">
-        <v>13.444812</v>
+        <v>13.444812000000001</v>
       </c>
       <c r="BP8" s="1">
-        <v>1482.790000</v>
+        <v>1482.79</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-584.707000</v>
+        <v>-584.70699999999999</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>48412.158774</v>
+        <v>48412.158774000003</v>
       </c>
       <c r="BT8" s="1">
         <v>13.447822</v>
       </c>
       <c r="BU8" s="1">
-        <v>1615.080000</v>
+        <v>1615.08</v>
       </c>
       <c r="BV8" s="1">
-        <v>-838.591000</v>
+        <v>-838.59100000000001</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>48423.039046</v>
+        <v>48423.039045999998</v>
       </c>
       <c r="BY8" s="1">
         <v>13.450844</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1768.890000</v>
+        <v>1768.89</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1115.340000</v>
+        <v>-1115.3399999999999</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>48434.597815</v>
+        <v>48434.597815000001</v>
       </c>
       <c r="CD8" s="1">
         <v>13.454055</v>
       </c>
       <c r="CE8" s="1">
-        <v>2192.320000</v>
+        <v>2192.3200000000002</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1785.320000</v>
+        <v>-1785.32</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>48262.551483</v>
+        <v>48262.551483000003</v>
       </c>
       <c r="B9" s="1">
         <v>13.406264</v>
       </c>
       <c r="C9" s="1">
-        <v>1144.120000</v>
+        <v>1144.1199999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-245.881000</v>
+        <v>-245.881</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>48272.887118</v>
+        <v>48272.887117999999</v>
       </c>
       <c r="G9" s="1">
-        <v>13.409135</v>
+        <v>13.409134999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>1165.620000</v>
+        <v>1165.6199999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-208.440000</v>
+        <v>-208.44</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>48283.319471</v>
+        <v>48283.319471000003</v>
       </c>
       <c r="L9" s="1">
-        <v>13.412033</v>
+        <v>13.412032999999999</v>
       </c>
       <c r="M9" s="1">
-        <v>1194.010000</v>
+        <v>1194.01</v>
       </c>
       <c r="N9" s="1">
-        <v>-147.634000</v>
+        <v>-147.63399999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>48293.856513</v>
+        <v>48293.856512999999</v>
       </c>
       <c r="Q9" s="1">
-        <v>13.414960</v>
+        <v>13.414960000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1202.410000</v>
+        <v>1202.4100000000001</v>
       </c>
       <c r="S9" s="1">
-        <v>-125.767000</v>
+        <v>-125.767</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>48304.398947</v>
+        <v>48304.398947000001</v>
       </c>
       <c r="V9" s="1">
-        <v>13.417889</v>
+        <v>13.417889000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>1210.530000</v>
+        <v>1210.53</v>
       </c>
       <c r="X9" s="1">
-        <v>-106.012000</v>
+        <v>-106.012</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>48314.898759</v>
+        <v>48314.898759000003</v>
       </c>
       <c r="AA9" s="1">
         <v>13.420805</v>
       </c>
       <c r="AB9" s="1">
-        <v>1218.880000</v>
+        <v>1218.8800000000001</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.794100</v>
+        <v>-89.7941</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>48325.781480</v>
+        <v>48325.781479999998</v>
       </c>
       <c r="AF9" s="1">
         <v>13.423828</v>
       </c>
       <c r="AG9" s="1">
-        <v>1223.730000</v>
+        <v>1223.73</v>
       </c>
       <c r="AH9" s="1">
-        <v>-85.709400</v>
+        <v>-85.709400000000002</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>48336.251531</v>
+        <v>48336.251531000002</v>
       </c>
       <c r="AK9" s="1">
-        <v>13.426737</v>
+        <v>13.426736999999999</v>
       </c>
       <c r="AL9" s="1">
-        <v>1231.020000</v>
+        <v>1231.02</v>
       </c>
       <c r="AM9" s="1">
-        <v>-89.476800</v>
+        <v>-89.476799999999997</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>48346.773659</v>
+        <v>48346.773658999999</v>
       </c>
       <c r="AP9" s="1">
-        <v>13.429659</v>
+        <v>13.429658999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1239.090000</v>
+        <v>1239.0899999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-101.692000</v>
+        <v>-101.69199999999999</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>48357.793314</v>
+        <v>48357.793314000002</v>
       </c>
       <c r="AU9" s="1">
-        <v>13.432720</v>
+        <v>13.43272</v>
       </c>
       <c r="AV9" s="1">
-        <v>1249.150000</v>
+        <v>1249.1500000000001</v>
       </c>
       <c r="AW9" s="1">
-        <v>-121.332000</v>
+        <v>-121.33199999999999</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>48368.939375</v>
+        <v>48368.939375000002</v>
       </c>
       <c r="AZ9" s="1">
-        <v>13.435816</v>
+        <v>13.435816000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1257.660000</v>
+        <v>1257.6600000000001</v>
       </c>
       <c r="BB9" s="1">
-        <v>-139.088000</v>
+        <v>-139.08799999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>48379.883105</v>
+        <v>48379.883105000001</v>
       </c>
       <c r="BE9" s="1">
-        <v>13.438856</v>
+        <v>13.438855999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1297.940000</v>
+        <v>1297.94</v>
       </c>
       <c r="BG9" s="1">
-        <v>-221.888000</v>
+        <v>-221.88800000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>48391.096684</v>
+        <v>48391.096683999996</v>
       </c>
       <c r="BJ9" s="1">
-        <v>13.441971</v>
+        <v>13.441971000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1367.870000</v>
+        <v>1367.87</v>
       </c>
       <c r="BL9" s="1">
-        <v>-359.823000</v>
+        <v>-359.82299999999998</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>48401.745268</v>
+        <v>48401.745267999999</v>
       </c>
       <c r="BO9" s="1">
         <v>13.444929</v>
       </c>
       <c r="BP9" s="1">
-        <v>1482.730000</v>
+        <v>1482.73</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-584.703000</v>
+        <v>-584.70299999999997</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>48412.586324</v>
+        <v>48412.586324000004</v>
       </c>
       <c r="BT9" s="1">
         <v>13.447941</v>
       </c>
       <c r="BU9" s="1">
-        <v>1615.060000</v>
+        <v>1615.06</v>
       </c>
       <c r="BV9" s="1">
-        <v>-838.782000</v>
+        <v>-838.78200000000004</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>48423.495866</v>
+        <v>48423.495865999997</v>
       </c>
       <c r="BY9" s="1">
-        <v>13.450971</v>
+        <v>13.450970999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1769.060000</v>
+        <v>1769.06</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1115.330000</v>
+        <v>-1115.33</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>48435.138460</v>
+        <v>48435.138460000002</v>
       </c>
       <c r="CD9" s="1">
         <v>13.454205</v>
       </c>
       <c r="CE9" s="1">
-        <v>2190.250000</v>
+        <v>2190.25</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1785.930000</v>
+        <v>-1785.93</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>48262.919054</v>
+        <v>48262.919053999998</v>
       </c>
       <c r="B10" s="1">
         <v>13.406366</v>
       </c>
       <c r="C10" s="1">
-        <v>1144.200000</v>
+        <v>1144.2</v>
       </c>
       <c r="D10" s="1">
-        <v>-245.929000</v>
+        <v>-245.929</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>48273.232830</v>
+        <v>48273.232830000001</v>
       </c>
       <c r="G10" s="1">
         <v>13.409231</v>
       </c>
       <c r="H10" s="1">
-        <v>1165.800000</v>
+        <v>1165.8</v>
       </c>
       <c r="I10" s="1">
-        <v>-207.965000</v>
+        <v>-207.965</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>48283.668656</v>
+        <v>48283.668656000002</v>
       </c>
       <c r="L10" s="1">
-        <v>13.412130</v>
+        <v>13.412129999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>1194.140000</v>
+        <v>1194.1400000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-147.573000</v>
+        <v>-147.57300000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>48294.204176</v>
+        <v>48294.204175999999</v>
       </c>
       <c r="Q10" s="1">
-        <v>13.415057</v>
+        <v>13.415056999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1202.380000</v>
+        <v>1202.3800000000001</v>
       </c>
       <c r="S10" s="1">
-        <v>-125.781000</v>
+        <v>-125.78100000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>48304.825047</v>
+        <v>48304.825046999998</v>
       </c>
       <c r="V10" s="1">
-        <v>13.418007</v>
+        <v>13.418006999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1210.570000</v>
+        <v>1210.57</v>
       </c>
       <c r="X10" s="1">
-        <v>-106.017000</v>
+        <v>-106.017</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>48315.314436</v>
+        <v>48315.314436000001</v>
       </c>
       <c r="AA10" s="1">
         <v>13.420921</v>
       </c>
       <c r="AB10" s="1">
-        <v>1218.820000</v>
+        <v>1218.82</v>
       </c>
       <c r="AC10" s="1">
-        <v>-89.906100</v>
+        <v>-89.906099999999995</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>48326.050311</v>
+        <v>48326.050310999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>13.423903</v>
+        <v>13.423902999999999</v>
       </c>
       <c r="AG10" s="1">
-        <v>1223.710000</v>
+        <v>1223.71</v>
       </c>
       <c r="AH10" s="1">
-        <v>-85.707600</v>
+        <v>-85.707599999999999</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>48336.461835</v>
+        <v>48336.461835000002</v>
       </c>
       <c r="AK10" s="1">
         <v>13.426795</v>
       </c>
       <c r="AL10" s="1">
-        <v>1231.020000</v>
+        <v>1231.02</v>
       </c>
       <c r="AM10" s="1">
-        <v>-89.457900</v>
+        <v>-89.457899999999995</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
         <v>48347.138219</v>
       </c>
       <c r="AP10" s="1">
-        <v>13.429761</v>
+        <v>13.429760999999999</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1239.070000</v>
+        <v>1239.07</v>
       </c>
       <c r="AR10" s="1">
-        <v>-101.724000</v>
+        <v>-101.724</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>48358.157877</v>
+        <v>48358.157876999998</v>
       </c>
       <c r="AU10" s="1">
         <v>13.432822</v>
       </c>
       <c r="AV10" s="1">
-        <v>1249.110000</v>
+        <v>1249.1099999999999</v>
       </c>
       <c r="AW10" s="1">
-        <v>-121.350000</v>
+        <v>-121.35</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>48369.301455</v>
+        <v>48369.301455000001</v>
       </c>
       <c r="AZ10" s="1">
         <v>13.435917</v>
       </c>
       <c r="BA10" s="1">
-        <v>1257.670000</v>
+        <v>1257.67</v>
       </c>
       <c r="BB10" s="1">
-        <v>-139.088000</v>
+        <v>-139.08799999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>48380.607264</v>
+        <v>48380.607263999998</v>
       </c>
       <c r="BE10" s="1">
-        <v>13.439058</v>
+        <v>13.439057999999999</v>
       </c>
       <c r="BF10" s="1">
-        <v>1297.920000</v>
+        <v>1297.92</v>
       </c>
       <c r="BG10" s="1">
-        <v>-221.893000</v>
+        <v>-221.893</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>48391.473648</v>
+        <v>48391.473647999999</v>
       </c>
       <c r="BJ10" s="1">
         <v>13.442076</v>
       </c>
       <c r="BK10" s="1">
-        <v>1367.840000</v>
+        <v>1367.84</v>
       </c>
       <c r="BL10" s="1">
-        <v>-359.826000</v>
+        <v>-359.82600000000002</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>48402.143594</v>
+        <v>48402.143594000001</v>
       </c>
       <c r="BO10" s="1">
-        <v>13.445040</v>
+        <v>13.445040000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1482.710000</v>
+        <v>1482.71</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-584.741000</v>
+        <v>-584.74099999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>48412.998501</v>
+        <v>48412.998501000002</v>
       </c>
       <c r="BT10" s="1">
         <v>13.448055</v>
       </c>
       <c r="BU10" s="1">
-        <v>1615.140000</v>
+        <v>1615.14</v>
       </c>
       <c r="BV10" s="1">
-        <v>-839.086000</v>
+        <v>-839.08600000000001</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>48424.250035</v>
+        <v>48424.250034999997</v>
       </c>
       <c r="BY10" s="1">
         <v>13.451181</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1769.040000</v>
+        <v>1769.04</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1115.280000</v>
+        <v>-1115.28</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>48435.993044</v>
+        <v>48435.993044000003</v>
       </c>
       <c r="CD10" s="1">
-        <v>13.454443</v>
+        <v>13.454442999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>2191.500000</v>
+        <v>2191.5</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1785.170000</v>
+        <v>-1785.17</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>48263.262779</v>
+        <v>48263.262778999997</v>
       </c>
       <c r="B11" s="1">
-        <v>13.406462</v>
+        <v>13.406461999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1144.310000</v>
+        <v>1144.31</v>
       </c>
       <c r="D11" s="1">
-        <v>-245.811000</v>
+        <v>-245.81100000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
         <v>48273.576061</v>
       </c>
       <c r="G11" s="1">
-        <v>13.409327</v>
+        <v>13.409326999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>1165.210000</v>
+        <v>1165.21</v>
       </c>
       <c r="I11" s="1">
-        <v>-208.223000</v>
+        <v>-208.22300000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>48284.014402</v>
+        <v>48284.014402000001</v>
       </c>
       <c r="L11" s="1">
         <v>13.412226</v>
       </c>
       <c r="M11" s="1">
-        <v>1194.060000</v>
+        <v>1194.06</v>
       </c>
       <c r="N11" s="1">
-        <v>-147.437000</v>
+        <v>-147.43700000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>48294.617383</v>
+        <v>48294.617382999997</v>
       </c>
       <c r="Q11" s="1">
-        <v>13.415171</v>
+        <v>13.415171000000001</v>
       </c>
       <c r="R11" s="1">
-        <v>1202.320000</v>
+        <v>1202.32</v>
       </c>
       <c r="S11" s="1">
-        <v>-125.830000</v>
+        <v>-125.83</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>48305.112196</v>
+        <v>48305.112196000002</v>
       </c>
       <c r="V11" s="1">
         <v>13.418087</v>
       </c>
       <c r="W11" s="1">
-        <v>1210.550000</v>
+        <v>1210.55</v>
       </c>
       <c r="X11" s="1">
-        <v>-105.956000</v>
+        <v>-105.956</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
         <v>48315.599145</v>
       </c>
       <c r="AA11" s="1">
-        <v>13.421000</v>
+        <v>13.420999999999999</v>
       </c>
       <c r="AB11" s="1">
-        <v>1218.820000</v>
+        <v>1218.82</v>
       </c>
       <c r="AC11" s="1">
-        <v>-89.838500</v>
+        <v>-89.838499999999996</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>48326.394040</v>
+        <v>48326.394039999999</v>
       </c>
       <c r="AF11" s="1">
-        <v>13.423998</v>
+        <v>13.423997999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1223.820000</v>
+        <v>1223.82</v>
       </c>
       <c r="AH11" s="1">
-        <v>-85.836500</v>
+        <v>-85.836500000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>48336.809560</v>
+        <v>48336.809560000002</v>
       </c>
       <c r="AK11" s="1">
         <v>13.426892</v>
       </c>
       <c r="AL11" s="1">
-        <v>1231.060000</v>
+        <v>1231.06</v>
       </c>
       <c r="AM11" s="1">
-        <v>-89.460400</v>
+        <v>-89.460400000000007</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>48347.496828</v>
+        <v>48347.496828000003</v>
       </c>
       <c r="AP11" s="1">
-        <v>13.429860</v>
+        <v>13.42986</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1239.080000</v>
+        <v>1239.08</v>
       </c>
       <c r="AR11" s="1">
-        <v>-101.729000</v>
+        <v>-101.729</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>48358.883515</v>
+        <v>48358.883515000001</v>
       </c>
       <c r="AU11" s="1">
         <v>13.433023</v>
       </c>
       <c r="AV11" s="1">
-        <v>1249.120000</v>
+        <v>1249.1199999999999</v>
       </c>
       <c r="AW11" s="1">
-        <v>-121.360000</v>
+        <v>-121.36</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>48370.016686</v>
+        <v>48370.016686000003</v>
       </c>
       <c r="AZ11" s="1">
         <v>13.436116</v>
       </c>
       <c r="BA11" s="1">
-        <v>1257.640000</v>
+        <v>1257.6400000000001</v>
       </c>
       <c r="BB11" s="1">
-        <v>-139.086000</v>
+        <v>-139.08600000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>48380.995662</v>
+        <v>48380.995662000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>13.439165</v>
+        <v>13.439164999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1297.950000</v>
+        <v>1297.95</v>
       </c>
       <c r="BG11" s="1">
-        <v>-221.861000</v>
+        <v>-221.86099999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>48391.852066</v>
+        <v>48391.852065999999</v>
       </c>
       <c r="BJ11" s="1">
         <v>13.442181</v>
       </c>
       <c r="BK11" s="1">
-        <v>1367.820000</v>
+        <v>1367.82</v>
       </c>
       <c r="BL11" s="1">
-        <v>-359.825000</v>
+        <v>-359.82499999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>48402.565155</v>
+        <v>48402.565154999997</v>
       </c>
       <c r="BO11" s="1">
         <v>13.445157</v>
       </c>
       <c r="BP11" s="1">
-        <v>1482.760000</v>
+        <v>1482.76</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-584.722000</v>
+        <v>-584.72199999999998</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>48413.738531</v>
+        <v>48413.738531000003</v>
       </c>
       <c r="BT11" s="1">
         <v>13.448261</v>
       </c>
       <c r="BU11" s="1">
-        <v>1615.230000</v>
+        <v>1615.23</v>
       </c>
       <c r="BV11" s="1">
-        <v>-839.169000</v>
+        <v>-839.16899999999998</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>48424.393093</v>
+        <v>48424.393092999999</v>
       </c>
       <c r="BY11" s="1">
-        <v>13.451220</v>
+        <v>13.451219999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1769.080000</v>
+        <v>1769.08</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1115.300000</v>
+        <v>-1115.3</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>48436.216230</v>
+        <v>48436.216229999998</v>
       </c>
       <c r="CD11" s="1">
-        <v>13.454505</v>
+        <v>13.454504999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>2191.560000</v>
+        <v>2191.56</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1784.740000</v>
+        <v>-1784.74</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>48263.601513</v>
+        <v>48263.601513000001</v>
       </c>
       <c r="B12" s="1">
         <v>13.406556</v>
       </c>
       <c r="C12" s="1">
-        <v>1143.900000</v>
+        <v>1143.9000000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-245.564000</v>
+        <v>-245.56399999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>48274.004605</v>
+        <v>48274.004605000002</v>
       </c>
       <c r="G12" s="1">
-        <v>13.409446</v>
+        <v>13.409446000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>1164.610000</v>
+        <v>1164.6099999999999</v>
       </c>
       <c r="I12" s="1">
-        <v>-208.138000</v>
+        <v>-208.13800000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>48284.436990</v>
+        <v>48284.436990000002</v>
       </c>
       <c r="L12" s="1">
-        <v>13.412344</v>
+        <v>13.412343999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>1194.110000</v>
+        <v>1194.1099999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-147.608000</v>
+        <v>-147.608</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>48294.910995</v>
+        <v>48294.910994999998</v>
       </c>
       <c r="Q12" s="1">
         <v>13.415253</v>
       </c>
       <c r="R12" s="1">
-        <v>1202.390000</v>
+        <v>1202.3900000000001</v>
       </c>
       <c r="S12" s="1">
-        <v>-125.678000</v>
+        <v>-125.678</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>48305.456418</v>
+        <v>48305.456418000002</v>
       </c>
       <c r="V12" s="1">
         <v>13.418182</v>
       </c>
       <c r="W12" s="1">
-        <v>1210.750000</v>
+        <v>1210.75</v>
       </c>
       <c r="X12" s="1">
-        <v>-106.072000</v>
+        <v>-106.072</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>48315.944821</v>
+        <v>48315.944820999997</v>
       </c>
       <c r="AA12" s="1">
         <v>13.421096</v>
       </c>
       <c r="AB12" s="1">
-        <v>1218.950000</v>
+        <v>1218.95</v>
       </c>
       <c r="AC12" s="1">
-        <v>-89.894100</v>
+        <v>-89.894099999999995</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>48326.740246</v>
+        <v>48326.740246000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>13.424095</v>
+        <v>13.424094999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1223.620000</v>
+        <v>1223.6199999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-85.761200</v>
+        <v>-85.761200000000002</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>48337.508423</v>
+        <v>48337.508422999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>13.427086</v>
+        <v>13.427085999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>1231.050000</v>
+        <v>1231.05</v>
       </c>
       <c r="AM12" s="1">
-        <v>-89.488600</v>
+        <v>-89.488600000000005</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>48348.220987</v>
+        <v>48348.220987000001</v>
       </c>
       <c r="AP12" s="1">
         <v>13.430061</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1239.090000</v>
+        <v>1239.0899999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-101.713000</v>
+        <v>-101.71299999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>48359.280315</v>
+        <v>48359.280315000004</v>
       </c>
       <c r="AU12" s="1">
         <v>13.433133</v>
       </c>
       <c r="AV12" s="1">
-        <v>1249.150000</v>
+        <v>1249.1500000000001</v>
       </c>
       <c r="AW12" s="1">
-        <v>-121.375000</v>
+        <v>-121.375</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>48370.374797</v>
+        <v>48370.374796999997</v>
       </c>
       <c r="AZ12" s="1">
-        <v>13.436215</v>
+        <v>13.436215000000001</v>
       </c>
       <c r="BA12" s="1">
-        <v>1257.670000</v>
+        <v>1257.67</v>
       </c>
       <c r="BB12" s="1">
-        <v>-139.062000</v>
+        <v>-139.06200000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>48381.356750</v>
+        <v>48381.356749999999</v>
       </c>
       <c r="BE12" s="1">
         <v>13.439266</v>
       </c>
       <c r="BF12" s="1">
-        <v>1297.910000</v>
+        <v>1297.9100000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-221.868000</v>
+        <v>-221.86799999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>48392.543519</v>
+        <v>48392.543518999999</v>
       </c>
       <c r="BJ12" s="1">
         <v>13.442373</v>
       </c>
       <c r="BK12" s="1">
-        <v>1367.840000</v>
+        <v>1367.84</v>
       </c>
       <c r="BL12" s="1">
-        <v>-359.836000</v>
+        <v>-359.83600000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>48403.352035</v>
+        <v>48403.352035000004</v>
       </c>
       <c r="BO12" s="1">
         <v>13.445376</v>
       </c>
       <c r="BP12" s="1">
-        <v>1482.680000</v>
+        <v>1482.68</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-584.661000</v>
+        <v>-584.66099999999994</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>48413.852612</v>
+        <v>48413.852612000002</v>
       </c>
       <c r="BT12" s="1">
         <v>13.448292</v>
       </c>
       <c r="BU12" s="1">
-        <v>1615.410000</v>
+        <v>1615.41</v>
       </c>
       <c r="BV12" s="1">
-        <v>-839.379000</v>
+        <v>-839.37900000000002</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>48424.814727</v>
+        <v>48424.814726999997</v>
       </c>
       <c r="BY12" s="1">
-        <v>13.451337</v>
+        <v>13.451337000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1768.940000</v>
+        <v>1768.94</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1115.310000</v>
+        <v>-1115.31</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>48436.738518</v>
+        <v>48436.738517999998</v>
       </c>
       <c r="CD12" s="1">
-        <v>13.454650</v>
+        <v>13.454650000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>2189.560000</v>
+        <v>2189.56</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1786.260000</v>
+        <v>-1786.26</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>48264.025097</v>
+        <v>48264.025096999998</v>
       </c>
       <c r="B13" s="1">
-        <v>13.406674</v>
+        <v>13.406674000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>1144.030000</v>
+        <v>1144.03</v>
       </c>
       <c r="D13" s="1">
-        <v>-245.567000</v>
+        <v>-245.56700000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>48274.265532</v>
+        <v>48274.265531999998</v>
       </c>
       <c r="G13" s="1">
         <v>13.409518</v>
       </c>
       <c r="H13" s="1">
-        <v>1165.000000</v>
+        <v>1165</v>
       </c>
       <c r="I13" s="1">
-        <v>-208.372000</v>
+        <v>-208.37200000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>48284.719181</v>
       </c>
       <c r="L13" s="1">
-        <v>13.412422</v>
+        <v>13.412421999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1193.930000</v>
+        <v>1193.93</v>
       </c>
       <c r="N13" s="1">
-        <v>-147.629000</v>
+        <v>-147.62899999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>48295.256724</v>
+        <v>48295.256723999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>13.415349</v>
+        <v>13.415349000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>1202.360000</v>
+        <v>1202.3599999999999</v>
       </c>
       <c r="S13" s="1">
-        <v>-125.686000</v>
+        <v>-125.68600000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
         <v>48305.799649</v>
       </c>
       <c r="V13" s="1">
-        <v>13.418278</v>
+        <v>13.418278000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1210.540000</v>
+        <v>1210.54</v>
       </c>
       <c r="X13" s="1">
-        <v>-105.871000</v>
+        <v>-105.871</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>48316.296020</v>
+        <v>48316.296020000002</v>
       </c>
       <c r="AA13" s="1">
-        <v>13.421193</v>
+        <v>13.421193000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1218.850000</v>
+        <v>1218.8499999999999</v>
       </c>
       <c r="AC13" s="1">
-        <v>-89.803300</v>
+        <v>-89.803299999999993</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>48327.424258</v>
+        <v>48327.424257999999</v>
       </c>
       <c r="AF13" s="1">
-        <v>13.424285</v>
+        <v>13.424284999999999</v>
       </c>
       <c r="AG13" s="1">
-        <v>1223.750000</v>
+        <v>1223.75</v>
       </c>
       <c r="AH13" s="1">
-        <v>-85.611200</v>
+        <v>-85.611199999999997</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>48337.857079</v>
+        <v>48337.857079000001</v>
       </c>
       <c r="AK13" s="1">
-        <v>13.427183</v>
+        <v>13.427182999999999</v>
       </c>
       <c r="AL13" s="1">
-        <v>1231.030000</v>
+        <v>1231.03</v>
       </c>
       <c r="AM13" s="1">
-        <v>-89.464100</v>
+        <v>-89.464100000000002</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>48348.597945</v>
+        <v>48348.597945000001</v>
       </c>
       <c r="AP13" s="1">
         <v>13.430166</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1239.080000</v>
+        <v>1239.08</v>
       </c>
       <c r="AR13" s="1">
-        <v>-101.719000</v>
+        <v>-101.71899999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>48359.645836</v>
+        <v>48359.645836000003</v>
       </c>
       <c r="AU13" s="1">
         <v>13.433235</v>
       </c>
       <c r="AV13" s="1">
-        <v>1249.140000</v>
+        <v>1249.1400000000001</v>
       </c>
       <c r="AW13" s="1">
-        <v>-121.384000</v>
+        <v>-121.384</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>48371.043900</v>
+        <v>48371.043899999997</v>
       </c>
       <c r="AZ13" s="1">
         <v>13.436401</v>
       </c>
       <c r="BA13" s="1">
-        <v>1257.640000</v>
+        <v>1257.6400000000001</v>
       </c>
       <c r="BB13" s="1">
-        <v>-139.068000</v>
+        <v>-139.06800000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>48382.025326</v>
+        <v>48382.025326000003</v>
       </c>
       <c r="BE13" s="1">
         <v>13.439451</v>
       </c>
       <c r="BF13" s="1">
-        <v>1297.900000</v>
+        <v>1297.9000000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-221.925000</v>
+        <v>-221.92500000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>48393.008735</v>
+        <v>48393.008735000003</v>
       </c>
       <c r="BJ13" s="1">
-        <v>13.442502</v>
+        <v>13.442501999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1367.850000</v>
+        <v>1367.85</v>
       </c>
       <c r="BL13" s="1">
-        <v>-359.834000</v>
+        <v>-359.834</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>48403.801931</v>
+        <v>48403.801931000002</v>
       </c>
       <c r="BO13" s="1">
         <v>13.445501</v>
       </c>
       <c r="BP13" s="1">
-        <v>1482.730000</v>
+        <v>1482.73</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-584.698000</v>
+        <v>-584.69799999999998</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>48414.293059</v>
+        <v>48414.293059000003</v>
       </c>
       <c r="BT13" s="1">
-        <v>13.448415</v>
+        <v>13.448415000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1615.670000</v>
+        <v>1615.67</v>
       </c>
       <c r="BV13" s="1">
-        <v>-839.489000</v>
+        <v>-839.48900000000003</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>48425.241784</v>
+        <v>48425.241783999998</v>
       </c>
       <c r="BY13" s="1">
         <v>13.451456</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1769.120000</v>
+        <v>1769.12</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1115.390000</v>
+        <v>-1115.3900000000001</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>48437.309412</v>
+        <v>48437.309412000002</v>
       </c>
       <c r="CD13" s="1">
         <v>13.454808</v>
       </c>
       <c r="CE13" s="1">
-        <v>2190.450000</v>
+        <v>2190.4499999999998</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1785.310000</v>
+        <v>-1785.31</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>48264.301410</v>
+        <v>48264.30141</v>
       </c>
       <c r="B14" s="1">
-        <v>13.406750</v>
+        <v>13.406750000000001</v>
       </c>
       <c r="C14" s="1">
-        <v>1144.200000</v>
+        <v>1144.2</v>
       </c>
       <c r="D14" s="1">
-        <v>-245.731000</v>
+        <v>-245.73099999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>48274.611212</v>
+        <v>48274.611212000003</v>
       </c>
       <c r="G14" s="1">
-        <v>13.409614</v>
+        <v>13.409613999999999</v>
       </c>
       <c r="H14" s="1">
-        <v>1165.750000</v>
+        <v>1165.75</v>
       </c>
       <c r="I14" s="1">
-        <v>-207.588000</v>
+        <v>-207.58799999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>48285.063902</v>
+        <v>48285.063902000002</v>
       </c>
       <c r="L14" s="1">
         <v>13.412518</v>
       </c>
       <c r="M14" s="1">
-        <v>1194.070000</v>
+        <v>1194.07</v>
       </c>
       <c r="N14" s="1">
-        <v>-147.430000</v>
+        <v>-147.43</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>48295.606894</v>
+        <v>48295.606893999997</v>
       </c>
       <c r="Q14" s="1">
-        <v>13.415446</v>
+        <v>13.415445999999999</v>
       </c>
       <c r="R14" s="1">
-        <v>1202.410000</v>
+        <v>1202.4100000000001</v>
       </c>
       <c r="S14" s="1">
-        <v>-125.739000</v>
+        <v>-125.739</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>48306.487105</v>
@@ -3625,255 +4041,255 @@
         <v>13.418469</v>
       </c>
       <c r="W14" s="1">
-        <v>1210.520000</v>
+        <v>1210.52</v>
       </c>
       <c r="X14" s="1">
-        <v>-106.071000</v>
+        <v>-106.071</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>48316.991909</v>
+        <v>48316.991908999997</v>
       </c>
       <c r="AA14" s="1">
-        <v>13.421387</v>
+        <v>13.421386999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>1218.810000</v>
+        <v>1218.81</v>
       </c>
       <c r="AC14" s="1">
-        <v>-89.832200</v>
+        <v>-89.8322</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>48327.767998</v>
+        <v>48327.767998000003</v>
       </c>
       <c r="AF14" s="1">
-        <v>13.424380</v>
+        <v>13.424379999999999</v>
       </c>
       <c r="AG14" s="1">
-        <v>1223.800000</v>
+        <v>1223.8</v>
       </c>
       <c r="AH14" s="1">
-        <v>-85.733300</v>
+        <v>-85.7333</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>48338.204774</v>
+        <v>48338.204773999998</v>
       </c>
       <c r="AK14" s="1">
         <v>13.427279</v>
       </c>
       <c r="AL14" s="1">
-        <v>1231.040000</v>
+        <v>1231.04</v>
       </c>
       <c r="AM14" s="1">
-        <v>-89.489400</v>
+        <v>-89.489400000000003</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>48348.960522</v>
+        <v>48348.960522000001</v>
       </c>
       <c r="AP14" s="1">
-        <v>13.430267</v>
+        <v>13.430267000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1239.080000</v>
+        <v>1239.08</v>
       </c>
       <c r="AR14" s="1">
-        <v>-101.731000</v>
+        <v>-101.73099999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>48360.314937</v>
+        <v>48360.314937000003</v>
       </c>
       <c r="AU14" s="1">
-        <v>13.433421</v>
+        <v>13.433420999999999</v>
       </c>
       <c r="AV14" s="1">
-        <v>1249.130000</v>
+        <v>1249.1300000000001</v>
       </c>
       <c r="AW14" s="1">
-        <v>-121.352000</v>
+        <v>-121.352</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>48371.484843</v>
+        <v>48371.484842999998</v>
       </c>
       <c r="AZ14" s="1">
         <v>13.436524</v>
       </c>
       <c r="BA14" s="1">
-        <v>1257.640000</v>
+        <v>1257.6400000000001</v>
       </c>
       <c r="BB14" s="1">
-        <v>-139.088000</v>
+        <v>-139.08799999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>48382.471757</v>
+        <v>48382.471756999999</v>
       </c>
       <c r="BE14" s="1">
         <v>13.439575</v>
       </c>
       <c r="BF14" s="1">
-        <v>1297.920000</v>
+        <v>1297.92</v>
       </c>
       <c r="BG14" s="1">
-        <v>-221.881000</v>
+        <v>-221.881</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>48393.395658</v>
+        <v>48393.395658000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>13.442610</v>
+        <v>13.44261</v>
       </c>
       <c r="BK14" s="1">
-        <v>1367.830000</v>
+        <v>1367.83</v>
       </c>
       <c r="BL14" s="1">
-        <v>-359.846000</v>
+        <v>-359.846</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>48404.196001</v>
+        <v>48404.196000999997</v>
       </c>
       <c r="BO14" s="1">
-        <v>13.445610</v>
+        <v>13.44561</v>
       </c>
       <c r="BP14" s="1">
-        <v>1482.700000</v>
+        <v>1482.7</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-584.742000</v>
+        <v>-584.74199999999996</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>48414.707217</v>
+        <v>48414.707217000003</v>
       </c>
       <c r="BT14" s="1">
-        <v>13.448530</v>
+        <v>13.44853</v>
       </c>
       <c r="BU14" s="1">
-        <v>1615.840000</v>
+        <v>1615.84</v>
       </c>
       <c r="BV14" s="1">
-        <v>-839.259000</v>
+        <v>-839.25900000000001</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>48425.659413</v>
+        <v>48425.659413000001</v>
       </c>
       <c r="BY14" s="1">
-        <v>13.451572</v>
+        <v>13.451572000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1769.150000</v>
+        <v>1769.15</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1115.300000</v>
+        <v>-1115.3</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>48437.805908</v>
+        <v>48437.805908000002</v>
       </c>
       <c r="CD14" s="1">
         <v>13.454946</v>
       </c>
       <c r="CE14" s="1">
-        <v>2191.290000</v>
+        <v>2191.29</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1784.640000</v>
+        <v>-1784.64</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>48264.643608</v>
+        <v>48264.643607999998</v>
       </c>
       <c r="B15" s="1">
-        <v>13.406845</v>
+        <v>13.406845000000001</v>
       </c>
       <c r="C15" s="1">
-        <v>1144.260000</v>
+        <v>1144.26</v>
       </c>
       <c r="D15" s="1">
-        <v>-245.745000</v>
+        <v>-245.745</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>48274.953982</v>
+        <v>48274.953981999999</v>
       </c>
       <c r="G15" s="1">
-        <v>13.409709</v>
+        <v>13.409708999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1165.030000</v>
+        <v>1165.03</v>
       </c>
       <c r="I15" s="1">
-        <v>-208.631000</v>
+        <v>-208.631</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>48285.409117</v>
+        <v>48285.409117000003</v>
       </c>
       <c r="L15" s="1">
         <v>13.412614</v>
       </c>
       <c r="M15" s="1">
-        <v>1194.180000</v>
+        <v>1194.18</v>
       </c>
       <c r="N15" s="1">
-        <v>-147.453000</v>
+        <v>-147.453</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>48296.305764</v>
+        <v>48296.305763999997</v>
       </c>
       <c r="Q15" s="1">
-        <v>13.415640</v>
+        <v>13.41564</v>
       </c>
       <c r="R15" s="1">
-        <v>1202.390000</v>
+        <v>1202.3900000000001</v>
       </c>
       <c r="S15" s="1">
-        <v>-125.781000</v>
+        <v>-125.78100000000001</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
         <v>48306.830832</v>
@@ -3882,225 +4298,225 @@
         <v>13.418564</v>
       </c>
       <c r="W15" s="1">
-        <v>1210.610000</v>
+        <v>1210.6099999999999</v>
       </c>
       <c r="X15" s="1">
-        <v>-106.052000</v>
+        <v>-106.05200000000001</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>48317.340104</v>
+        <v>48317.340104000003</v>
       </c>
       <c r="AA15" s="1">
         <v>13.421483</v>
       </c>
       <c r="AB15" s="1">
-        <v>1218.900000</v>
+        <v>1218.9000000000001</v>
       </c>
       <c r="AC15" s="1">
-        <v>-89.837300</v>
+        <v>-89.837299999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>48328.112708</v>
+        <v>48328.112708000001</v>
       </c>
       <c r="AF15" s="1">
         <v>13.424476</v>
       </c>
       <c r="AG15" s="1">
-        <v>1223.770000</v>
+        <v>1223.77</v>
       </c>
       <c r="AH15" s="1">
-        <v>-85.701100</v>
+        <v>-85.701099999999997</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>48338.867462</v>
+        <v>48338.867462000002</v>
       </c>
       <c r="AK15" s="1">
-        <v>13.427463</v>
+        <v>13.427462999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>1231.010000</v>
+        <v>1231.01</v>
       </c>
       <c r="AM15" s="1">
-        <v>-89.496900</v>
+        <v>-89.496899999999997</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>48349.626188</v>
+        <v>48349.626188000002</v>
       </c>
       <c r="AP15" s="1">
-        <v>13.430452</v>
+        <v>13.430452000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1239.080000</v>
+        <v>1239.08</v>
       </c>
       <c r="AR15" s="1">
-        <v>-101.721000</v>
+        <v>-101.721</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>48360.773773</v>
+        <v>48360.773773000001</v>
       </c>
       <c r="AU15" s="1">
         <v>13.433548</v>
       </c>
       <c r="AV15" s="1">
-        <v>1249.140000</v>
+        <v>1249.1400000000001</v>
       </c>
       <c r="AW15" s="1">
-        <v>-121.369000</v>
+        <v>-121.369</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>48371.841962</v>
+        <v>48371.841961999999</v>
       </c>
       <c r="AZ15" s="1">
-        <v>13.436623</v>
+        <v>13.436623000000001</v>
       </c>
       <c r="BA15" s="1">
-        <v>1257.600000</v>
+        <v>1257.5999999999999</v>
       </c>
       <c r="BB15" s="1">
-        <v>-139.102000</v>
+        <v>-139.102</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>48382.831856</v>
+        <v>48382.831855999997</v>
       </c>
       <c r="BE15" s="1">
         <v>13.439676</v>
       </c>
       <c r="BF15" s="1">
-        <v>1297.950000</v>
+        <v>1297.95</v>
       </c>
       <c r="BG15" s="1">
-        <v>-221.874000</v>
+        <v>-221.874</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>48393.772077</v>
+        <v>48393.772077000001</v>
       </c>
       <c r="BJ15" s="1">
         <v>13.442714</v>
       </c>
       <c r="BK15" s="1">
-        <v>1367.840000</v>
+        <v>1367.84</v>
       </c>
       <c r="BL15" s="1">
-        <v>-359.840000</v>
+        <v>-359.84</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>48404.617600</v>
+        <v>48404.617599999998</v>
       </c>
       <c r="BO15" s="1">
         <v>13.445727</v>
       </c>
       <c r="BP15" s="1">
-        <v>1482.760000</v>
+        <v>1482.76</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-584.732000</v>
+        <v>-584.73199999999997</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>48415.138737</v>
+        <v>48415.138737000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>13.448650</v>
+        <v>13.448650000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1616.090000</v>
+        <v>1616.09</v>
       </c>
       <c r="BV15" s="1">
-        <v>-839.128000</v>
+        <v>-839.12800000000004</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>48426.100819</v>
+        <v>48426.100818999999</v>
       </c>
       <c r="BY15" s="1">
-        <v>13.451695</v>
+        <v>13.451695000000001</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1769.130000</v>
+        <v>1769.13</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1115.290000</v>
+        <v>-1115.29</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>48438.336130</v>
+        <v>48438.336130000003</v>
       </c>
       <c r="CD15" s="1">
         <v>13.455093</v>
       </c>
       <c r="CE15" s="1">
-        <v>2189.790000</v>
+        <v>2189.79</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1786.210000</v>
+        <v>-1786.21</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>48264.985847</v>
+        <v>48264.985847000004</v>
       </c>
       <c r="B16" s="1">
         <v>13.406941</v>
       </c>
       <c r="C16" s="1">
-        <v>1144.070000</v>
+        <v>1144.07</v>
       </c>
       <c r="D16" s="1">
-        <v>-245.585000</v>
+        <v>-245.58500000000001</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>48275.643385</v>
+        <v>48275.643385000003</v>
       </c>
       <c r="G16" s="1">
         <v>13.409901</v>
       </c>
       <c r="H16" s="1">
-        <v>1166.150000</v>
+        <v>1166.1500000000001</v>
       </c>
       <c r="I16" s="1">
-        <v>-208.605000</v>
+        <v>-208.60499999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>48286.101035</v>
@@ -4109,43 +4525,43 @@
         <v>13.412806</v>
       </c>
       <c r="M16" s="1">
-        <v>1194.050000</v>
+        <v>1194.05</v>
       </c>
       <c r="N16" s="1">
-        <v>-147.588000</v>
+        <v>-147.58799999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>48296.653917</v>
+        <v>48296.653917000003</v>
       </c>
       <c r="Q16" s="1">
         <v>13.415737</v>
       </c>
       <c r="R16" s="1">
-        <v>1202.310000</v>
+        <v>1202.31</v>
       </c>
       <c r="S16" s="1">
-        <v>-125.825000</v>
+        <v>-125.825</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>48307.172613</v>
+        <v>48307.172613000002</v>
       </c>
       <c r="V16" s="1">
         <v>13.418659</v>
       </c>
       <c r="W16" s="1">
-        <v>1210.570000</v>
+        <v>1210.57</v>
       </c>
       <c r="X16" s="1">
-        <v>-105.932000</v>
+        <v>-105.932</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
         <v>48317.691756</v>
@@ -4154,527 +4570,527 @@
         <v>13.421581</v>
       </c>
       <c r="AB16" s="1">
-        <v>1218.920000</v>
+        <v>1218.92</v>
       </c>
       <c r="AC16" s="1">
-        <v>-89.785300</v>
+        <v>-89.785300000000007</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>48328.761972</v>
       </c>
       <c r="AF16" s="1">
-        <v>13.424656</v>
+        <v>13.424656000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>1223.750000</v>
+        <v>1223.75</v>
       </c>
       <c r="AH16" s="1">
-        <v>-85.708700</v>
+        <v>-85.708699999999993</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>48339.250374</v>
+        <v>48339.250374000003</v>
       </c>
       <c r="AK16" s="1">
-        <v>13.427570</v>
+        <v>13.427569999999999</v>
       </c>
       <c r="AL16" s="1">
-        <v>1231.030000</v>
+        <v>1231.03</v>
       </c>
       <c r="AM16" s="1">
-        <v>-89.493500</v>
+        <v>-89.493499999999997</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>48350.038327</v>
+        <v>48350.038327000002</v>
       </c>
       <c r="AP16" s="1">
-        <v>13.430566</v>
+        <v>13.430566000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1239.100000</v>
+        <v>1239.0999999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-101.713000</v>
+        <v>-101.71299999999999</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>48361.132842</v>
+        <v>48361.132841999999</v>
       </c>
       <c r="AU16" s="1">
         <v>13.433648</v>
       </c>
       <c r="AV16" s="1">
-        <v>1249.140000</v>
+        <v>1249.1400000000001</v>
       </c>
       <c r="AW16" s="1">
-        <v>-121.366000</v>
+        <v>-121.366</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>48372.202057</v>
+        <v>48372.202057000002</v>
       </c>
       <c r="AZ16" s="1">
-        <v>13.436723</v>
+        <v>13.436723000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1257.660000</v>
+        <v>1257.6600000000001</v>
       </c>
       <c r="BB16" s="1">
-        <v>-139.061000</v>
+        <v>-139.06100000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>48383.194928</v>
+        <v>48383.194927999997</v>
       </c>
       <c r="BE16" s="1">
         <v>13.439776</v>
       </c>
       <c r="BF16" s="1">
-        <v>1297.920000</v>
+        <v>1297.92</v>
       </c>
       <c r="BG16" s="1">
-        <v>-221.923000</v>
+        <v>-221.923</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>48394.206574</v>
+        <v>48394.206574000003</v>
       </c>
       <c r="BJ16" s="1">
-        <v>13.442835</v>
+        <v>13.442835000000001</v>
       </c>
       <c r="BK16" s="1">
-        <v>1367.830000</v>
+        <v>1367.83</v>
       </c>
       <c r="BL16" s="1">
-        <v>-359.811000</v>
+        <v>-359.81099999999998</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>48405.016384</v>
+        <v>48405.016384000002</v>
       </c>
       <c r="BO16" s="1">
         <v>13.445838</v>
       </c>
       <c r="BP16" s="1">
-        <v>1482.720000</v>
+        <v>1482.72</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-584.677000</v>
+        <v>-584.67700000000002</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>48415.563849</v>
+        <v>48415.563848999998</v>
       </c>
       <c r="BT16" s="1">
-        <v>13.448768</v>
+        <v>13.448767999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1616.120000</v>
+        <v>1616.12</v>
       </c>
       <c r="BV16" s="1">
-        <v>-838.869000</v>
+        <v>-838.86900000000003</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>48426.522914</v>
+        <v>48426.522914000001</v>
       </c>
       <c r="BY16" s="1">
         <v>13.451812</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1769.010000</v>
+        <v>1769.01</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1115.240000</v>
+        <v>-1115.24</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>48438.856465</v>
+        <v>48438.856464999997</v>
       </c>
       <c r="CD16" s="1">
         <v>13.455238</v>
       </c>
       <c r="CE16" s="1">
-        <v>2190.290000</v>
+        <v>2190.29</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1785.750000</v>
+        <v>-1785.75</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>48265.667847</v>
+        <v>48265.667846999997</v>
       </c>
       <c r="B17" s="1">
-        <v>13.407130</v>
+        <v>13.40713</v>
       </c>
       <c r="C17" s="1">
-        <v>1144.100000</v>
+        <v>1144.0999999999999</v>
       </c>
       <c r="D17" s="1">
-        <v>-245.829000</v>
+        <v>-245.82900000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>48275.986617</v>
+        <v>48275.986617000002</v>
       </c>
       <c r="G17" s="1">
         <v>13.409996</v>
       </c>
       <c r="H17" s="1">
-        <v>1165.040000</v>
+        <v>1165.04</v>
       </c>
       <c r="I17" s="1">
-        <v>-208.446000</v>
+        <v>-208.446</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>48286.453691</v>
+        <v>48286.453691000002</v>
       </c>
       <c r="L17" s="1">
-        <v>13.412904</v>
+        <v>13.412903999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1194.000000</v>
+        <v>1194</v>
       </c>
       <c r="N17" s="1">
-        <v>-147.551000</v>
+        <v>-147.55099999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>48297.000659</v>
+        <v>48297.000658999998</v>
       </c>
       <c r="Q17" s="1">
         <v>13.415834</v>
       </c>
       <c r="R17" s="1">
-        <v>1202.330000</v>
+        <v>1202.33</v>
       </c>
       <c r="S17" s="1">
-        <v>-125.749000</v>
+        <v>-125.749</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>48307.826303</v>
+        <v>48307.826303000002</v>
       </c>
       <c r="V17" s="1">
         <v>13.418841</v>
       </c>
       <c r="W17" s="1">
-        <v>1210.670000</v>
+        <v>1210.67</v>
       </c>
       <c r="X17" s="1">
-        <v>-106.036000</v>
+        <v>-106.036</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>48318.363313</v>
+        <v>48318.363313000002</v>
       </c>
       <c r="AA17" s="1">
         <v>13.421768</v>
       </c>
       <c r="AB17" s="1">
-        <v>1218.930000</v>
+        <v>1218.93</v>
       </c>
       <c r="AC17" s="1">
-        <v>-89.844400</v>
+        <v>-89.844399999999993</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>48329.142400</v>
+        <v>48329.142399999997</v>
       </c>
       <c r="AF17" s="1">
-        <v>13.424762</v>
+        <v>13.424761999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1223.700000</v>
+        <v>1223.7</v>
       </c>
       <c r="AH17" s="1">
-        <v>-85.688700</v>
+        <v>-85.688699999999997</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>48339.597076</v>
+        <v>48339.597075999998</v>
       </c>
       <c r="AK17" s="1">
         <v>13.427666</v>
       </c>
       <c r="AL17" s="1">
-        <v>1231.020000</v>
+        <v>1231.02</v>
       </c>
       <c r="AM17" s="1">
-        <v>-89.458100</v>
+        <v>-89.458100000000002</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>48350.421762</v>
+        <v>48350.421761999998</v>
       </c>
       <c r="AP17" s="1">
-        <v>13.430673</v>
+        <v>13.430673000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1239.050000</v>
+        <v>1239.05</v>
       </c>
       <c r="AR17" s="1">
-        <v>-101.689000</v>
+        <v>-101.68899999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
         <v>48361.503353</v>
       </c>
       <c r="AU17" s="1">
-        <v>13.433751</v>
+        <v>13.433751000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1249.150000</v>
+        <v>1249.1500000000001</v>
       </c>
       <c r="AW17" s="1">
-        <v>-121.337000</v>
+        <v>-121.337</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>48372.619193</v>
+        <v>48372.619192999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>13.436839</v>
+        <v>13.436839000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1257.660000</v>
+        <v>1257.6600000000001</v>
       </c>
       <c r="BB17" s="1">
-        <v>-139.055000</v>
+        <v>-139.05500000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>48383.622477</v>
+        <v>48383.622476999997</v>
       </c>
       <c r="BE17" s="1">
         <v>13.439895</v>
       </c>
       <c r="BF17" s="1">
-        <v>1297.900000</v>
+        <v>1297.9000000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-221.899000</v>
+        <v>-221.899</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>48394.522526</v>
+        <v>48394.522526000001</v>
       </c>
       <c r="BJ17" s="1">
         <v>13.442923</v>
       </c>
       <c r="BK17" s="1">
-        <v>1367.810000</v>
+        <v>1367.81</v>
       </c>
       <c r="BL17" s="1">
-        <v>-359.836000</v>
+        <v>-359.83600000000001</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>48405.433554</v>
+        <v>48405.433554000003</v>
       </c>
       <c r="BO17" s="1">
         <v>13.445954</v>
       </c>
       <c r="BP17" s="1">
-        <v>1482.770000</v>
+        <v>1482.77</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-584.671000</v>
+        <v>-584.67100000000005</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>48415.978973</v>
+        <v>48415.978972999997</v>
       </c>
       <c r="BT17" s="1">
         <v>13.448883</v>
       </c>
       <c r="BU17" s="1">
-        <v>1616.050000</v>
+        <v>1616.05</v>
       </c>
       <c r="BV17" s="1">
-        <v>-838.609000</v>
+        <v>-838.60900000000004</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>48426.949971</v>
+        <v>48426.949971000002</v>
       </c>
       <c r="BY17" s="1">
         <v>13.451931</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1769.070000</v>
+        <v>1769.07</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1115.260000</v>
+        <v>-1115.26</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>48439.419429</v>
+        <v>48439.419429000001</v>
       </c>
       <c r="CD17" s="1">
         <v>13.455394</v>
       </c>
       <c r="CE17" s="1">
-        <v>2191.260000</v>
+        <v>2191.2600000000002</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1784.460000</v>
+        <v>-1784.46</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>48266.011109</v>
+        <v>48266.011108999999</v>
       </c>
       <c r="B18" s="1">
         <v>13.407225</v>
       </c>
       <c r="C18" s="1">
-        <v>1144.060000</v>
+        <v>1144.06</v>
       </c>
       <c r="D18" s="1">
-        <v>-245.710000</v>
+        <v>-245.71</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>48276.333817</v>
+        <v>48276.333816999999</v>
       </c>
       <c r="G18" s="1">
         <v>13.410093</v>
       </c>
       <c r="H18" s="1">
-        <v>1165.210000</v>
+        <v>1165.21</v>
       </c>
       <c r="I18" s="1">
-        <v>-209.158000</v>
+        <v>-209.15799999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>48287.109437</v>
+        <v>48287.109436999999</v>
       </c>
       <c r="L18" s="1">
         <v>13.413086</v>
       </c>
       <c r="M18" s="1">
-        <v>1193.890000</v>
+        <v>1193.8900000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-147.540000</v>
+        <v>-147.54</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>48297.658318</v>
+        <v>48297.658318000002</v>
       </c>
       <c r="Q18" s="1">
-        <v>13.416016</v>
+        <v>13.416016000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1202.390000</v>
+        <v>1202.3900000000001</v>
       </c>
       <c r="S18" s="1">
-        <v>-125.702000</v>
+        <v>-125.702</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>48308.203262</v>
+        <v>48308.203262000003</v>
       </c>
       <c r="V18" s="1">
-        <v>13.418945</v>
+        <v>13.418945000000001</v>
       </c>
       <c r="W18" s="1">
-        <v>1210.630000</v>
+        <v>1210.6300000000001</v>
       </c>
       <c r="X18" s="1">
-        <v>-106.008000</v>
+        <v>-106.008</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>48318.735809</v>
+        <v>48318.735808999998</v>
       </c>
       <c r="AA18" s="1">
-        <v>13.421871</v>
+        <v>13.421870999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1218.810000</v>
+        <v>1218.81</v>
       </c>
       <c r="AC18" s="1">
-        <v>-89.844400</v>
+        <v>-89.844399999999993</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>48329.488115</v>
@@ -4683,43 +5099,43 @@
         <v>13.424858</v>
       </c>
       <c r="AG18" s="1">
-        <v>1223.780000</v>
+        <v>1223.78</v>
       </c>
       <c r="AH18" s="1">
-        <v>-85.816800</v>
+        <v>-85.816800000000001</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>48339.944741</v>
+        <v>48339.944740999999</v>
       </c>
       <c r="AK18" s="1">
         <v>13.427762</v>
       </c>
       <c r="AL18" s="1">
-        <v>1231.040000</v>
+        <v>1231.04</v>
       </c>
       <c r="AM18" s="1">
-        <v>-89.483700</v>
+        <v>-89.483699999999999</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>48350.784311</v>
+        <v>48350.784311000003</v>
       </c>
       <c r="AP18" s="1">
         <v>13.430773</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1239.090000</v>
+        <v>1239.0899999999999</v>
       </c>
       <c r="AR18" s="1">
-        <v>-101.721000</v>
+        <v>-101.721</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
         <v>48361.926969</v>
@@ -4728,165 +5144,165 @@
         <v>13.433869</v>
       </c>
       <c r="AV18" s="1">
-        <v>1249.160000</v>
+        <v>1249.1600000000001</v>
       </c>
       <c r="AW18" s="1">
-        <v>-121.360000</v>
+        <v>-121.36</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>48372.921288</v>
+        <v>48372.921287999998</v>
       </c>
       <c r="AZ18" s="1">
         <v>13.436923</v>
       </c>
       <c r="BA18" s="1">
-        <v>1257.620000</v>
+        <v>1257.6199999999999</v>
       </c>
       <c r="BB18" s="1">
-        <v>-139.066000</v>
+        <v>-139.066</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>48383.918058</v>
+        <v>48383.918058000003</v>
       </c>
       <c r="BE18" s="1">
-        <v>13.439977</v>
+        <v>13.439977000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1297.930000</v>
+        <v>1297.93</v>
       </c>
       <c r="BG18" s="1">
-        <v>-221.892000</v>
+        <v>-221.892</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
         <v>48394.898492</v>
       </c>
       <c r="BJ18" s="1">
-        <v>13.443027</v>
+        <v>13.443027000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1367.840000</v>
+        <v>1367.84</v>
       </c>
       <c r="BL18" s="1">
-        <v>-359.781000</v>
+        <v>-359.78100000000001</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>48405.832303</v>
+        <v>48405.832303000003</v>
       </c>
       <c r="BO18" s="1">
-        <v>13.446065</v>
+        <v>13.446065000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1482.720000</v>
+        <v>1482.72</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-584.708000</v>
+        <v>-584.70799999999997</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>48416.409024</v>
       </c>
       <c r="BT18" s="1">
-        <v>13.449003</v>
+        <v>13.449002999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1615.820000</v>
+        <v>1615.82</v>
       </c>
       <c r="BV18" s="1">
-        <v>-838.499000</v>
+        <v>-838.49900000000002</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>48427.395409</v>
+        <v>48427.395408999997</v>
       </c>
       <c r="BY18" s="1">
         <v>13.452054</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1769.090000</v>
+        <v>1769.09</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1115.360000</v>
+        <v>-1115.3599999999999</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>48439.936720</v>
+        <v>48439.936719999998</v>
       </c>
       <c r="CD18" s="1">
-        <v>13.455538</v>
+        <v>13.455538000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>2190.010000</v>
+        <v>2190.0100000000002</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1785.930000</v>
+        <v>-1785.93</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>48266.351335</v>
+        <v>48266.351334999999</v>
       </c>
       <c r="B19" s="1">
-        <v>13.407320</v>
+        <v>13.40732</v>
       </c>
       <c r="C19" s="1">
-        <v>1144.290000</v>
+        <v>1144.29</v>
       </c>
       <c r="D19" s="1">
-        <v>-245.810000</v>
+        <v>-245.81</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>48276.987576</v>
       </c>
       <c r="G19" s="1">
-        <v>13.410274</v>
+        <v>13.410273999999999</v>
       </c>
       <c r="H19" s="1">
-        <v>1164.800000</v>
+        <v>1164.8</v>
       </c>
       <c r="I19" s="1">
-        <v>-208.740000</v>
+        <v>-208.74</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>48287.489866</v>
+        <v>48287.489866000004</v>
       </c>
       <c r="L19" s="1">
         <v>13.413192</v>
       </c>
       <c r="M19" s="1">
-        <v>1193.880000</v>
+        <v>1193.8800000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-147.689000</v>
+        <v>-147.68899999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
         <v>48298.045693</v>
@@ -4895,829 +5311,829 @@
         <v>13.416124</v>
       </c>
       <c r="R19" s="1">
-        <v>1202.380000</v>
+        <v>1202.3800000000001</v>
       </c>
       <c r="S19" s="1">
-        <v>-125.725000</v>
+        <v>-125.72499999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>48308.548479</v>
+        <v>48308.548478999997</v>
       </c>
       <c r="V19" s="1">
         <v>13.419041</v>
       </c>
       <c r="W19" s="1">
-        <v>1210.620000</v>
+        <v>1210.6199999999999</v>
       </c>
       <c r="X19" s="1">
-        <v>-105.997000</v>
+        <v>-105.997</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>48319.205520</v>
+        <v>48319.205520000003</v>
       </c>
       <c r="AA19" s="1">
-        <v>13.422002</v>
+        <v>13.422002000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>1218.740000</v>
+        <v>1218.74</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.892900</v>
+        <v>-89.892899999999997</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>48329.835318</v>
+        <v>48329.835317999998</v>
       </c>
       <c r="AF19" s="1">
         <v>13.424954</v>
       </c>
       <c r="AG19" s="1">
-        <v>1223.740000</v>
+        <v>1223.74</v>
       </c>
       <c r="AH19" s="1">
-        <v>-85.793200</v>
+        <v>-85.793199999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
         <v>48340.365845</v>
       </c>
       <c r="AK19" s="1">
-        <v>13.427879</v>
+        <v>13.427879000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1231.040000</v>
+        <v>1231.04</v>
       </c>
       <c r="AM19" s="1">
-        <v>-89.461400</v>
+        <v>-89.461399999999998</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>48351.203926</v>
+        <v>48351.203926000002</v>
       </c>
       <c r="AP19" s="1">
-        <v>13.430890</v>
+        <v>13.43089</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1239.100000</v>
+        <v>1239.0999999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-101.702000</v>
+        <v>-101.702</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>48362.227049</v>
+        <v>48362.227049000001</v>
       </c>
       <c r="AU19" s="1">
         <v>13.433952</v>
       </c>
       <c r="AV19" s="1">
-        <v>1249.150000</v>
+        <v>1249.1500000000001</v>
       </c>
       <c r="AW19" s="1">
-        <v>-121.354000</v>
+        <v>-121.354</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>48373.278873</v>
+        <v>48373.278873000003</v>
       </c>
       <c r="AZ19" s="1">
-        <v>13.437022</v>
+        <v>13.437022000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1257.640000</v>
+        <v>1257.6400000000001</v>
       </c>
       <c r="BB19" s="1">
-        <v>-139.040000</v>
+        <v>-139.04</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>48384.276667</v>
+        <v>48384.276666999998</v>
       </c>
       <c r="BE19" s="1">
         <v>13.440077</v>
       </c>
       <c r="BF19" s="1">
-        <v>1297.910000</v>
+        <v>1297.9100000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-221.890000</v>
+        <v>-221.89</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>48395.296781</v>
+        <v>48395.296780999997</v>
       </c>
       <c r="BJ19" s="1">
-        <v>13.443138</v>
+        <v>13.443137999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1367.840000</v>
+        <v>1367.84</v>
       </c>
       <c r="BL19" s="1">
-        <v>-359.814000</v>
+        <v>-359.81400000000002</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>48406.258862</v>
+        <v>48406.258862000002</v>
       </c>
       <c r="BO19" s="1">
         <v>13.446183</v>
       </c>
       <c r="BP19" s="1">
-        <v>1482.790000</v>
+        <v>1482.79</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-584.741000</v>
+        <v>-584.74099999999999</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>48416.836079</v>
+        <v>48416.836079000001</v>
       </c>
       <c r="BT19" s="1">
         <v>13.449121</v>
       </c>
       <c r="BU19" s="1">
-        <v>1615.690000</v>
+        <v>1615.69</v>
       </c>
       <c r="BV19" s="1">
-        <v>-838.191000</v>
+        <v>-838.19100000000003</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>48427.844788</v>
+        <v>48427.844788000002</v>
       </c>
       <c r="BY19" s="1">
-        <v>13.452179</v>
+        <v>13.452178999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1769.070000</v>
+        <v>1769.07</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1115.320000</v>
+        <v>-1115.32</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>48440.455568</v>
+        <v>48440.455567999998</v>
       </c>
       <c r="CD19" s="1">
-        <v>13.455682</v>
+        <v>13.455681999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>2190.140000</v>
+        <v>2190.14</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1785.660000</v>
+        <v>-1785.66</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>48267.005557</v>
+        <v>48267.005556999997</v>
       </c>
       <c r="B20" s="1">
-        <v>13.407502</v>
+        <v>13.407501999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>1144.150000</v>
+        <v>1144.1500000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-245.751000</v>
+        <v>-245.751</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>48277.368503</v>
+        <v>48277.368502999998</v>
       </c>
       <c r="G20" s="1">
-        <v>13.410380</v>
+        <v>13.41038</v>
       </c>
       <c r="H20" s="1">
-        <v>1164.690000</v>
+        <v>1164.69</v>
       </c>
       <c r="I20" s="1">
-        <v>-208.776000</v>
+        <v>-208.77600000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>48287.836073</v>
+        <v>48287.836072999999</v>
       </c>
       <c r="L20" s="1">
         <v>13.413288</v>
       </c>
       <c r="M20" s="1">
-        <v>1193.960000</v>
+        <v>1193.96</v>
       </c>
       <c r="N20" s="1">
-        <v>-147.592000</v>
+        <v>-147.59200000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>48298.397357</v>
+        <v>48298.397357000002</v>
       </c>
       <c r="Q20" s="1">
         <v>13.416221</v>
       </c>
       <c r="R20" s="1">
-        <v>1202.400000</v>
+        <v>1202.4000000000001</v>
       </c>
       <c r="S20" s="1">
-        <v>-125.800000</v>
+        <v>-125.8</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>48308.898654</v>
+        <v>48308.898653999997</v>
       </c>
       <c r="V20" s="1">
-        <v>13.419139</v>
+        <v>13.419138999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1210.610000</v>
+        <v>1210.6099999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-106.097000</v>
+        <v>-106.09699999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>48319.433680</v>
+        <v>48319.433680000002</v>
       </c>
       <c r="AA20" s="1">
         <v>13.422065</v>
       </c>
       <c r="AB20" s="1">
-        <v>1218.930000</v>
+        <v>1218.93</v>
       </c>
       <c r="AC20" s="1">
-        <v>-89.841500</v>
+        <v>-89.841499999999996</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>48330.272258</v>
+        <v>48330.272257999997</v>
       </c>
       <c r="AF20" s="1">
-        <v>13.425076</v>
+        <v>13.425076000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>1223.770000</v>
+        <v>1223.77</v>
       </c>
       <c r="AH20" s="1">
-        <v>-85.737700</v>
+        <v>-85.737700000000004</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>48340.646579</v>
       </c>
       <c r="AK20" s="1">
-        <v>13.427957</v>
+        <v>13.427956999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>1231.030000</v>
+        <v>1231.03</v>
       </c>
       <c r="AM20" s="1">
-        <v>-89.481300</v>
+        <v>-89.481300000000005</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>48351.503509</v>
+        <v>48351.503509000002</v>
       </c>
       <c r="AP20" s="1">
         <v>13.430973</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1239.090000</v>
+        <v>1239.0899999999999</v>
       </c>
       <c r="AR20" s="1">
-        <v>-101.712000</v>
+        <v>-101.712</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>48362.596536</v>
+        <v>48362.596535999997</v>
       </c>
       <c r="AU20" s="1">
-        <v>13.434055</v>
+        <v>13.434055000000001</v>
       </c>
       <c r="AV20" s="1">
-        <v>1249.150000</v>
+        <v>1249.1500000000001</v>
       </c>
       <c r="AW20" s="1">
-        <v>-121.358000</v>
+        <v>-121.358</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>48373.638968</v>
+        <v>48373.638967999999</v>
       </c>
       <c r="AZ20" s="1">
         <v>13.437122</v>
       </c>
       <c r="BA20" s="1">
-        <v>1257.600000</v>
+        <v>1257.5999999999999</v>
       </c>
       <c r="BB20" s="1">
-        <v>-139.086000</v>
+        <v>-139.08600000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>48384.639771</v>
+        <v>48384.639771000002</v>
       </c>
       <c r="BE20" s="1">
         <v>13.440178</v>
       </c>
       <c r="BF20" s="1">
-        <v>1297.930000</v>
+        <v>1297.93</v>
       </c>
       <c r="BG20" s="1">
-        <v>-221.872000</v>
+        <v>-221.87200000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>48396.045740</v>
+        <v>48396.045740000001</v>
       </c>
       <c r="BJ20" s="1">
         <v>13.443346</v>
       </c>
       <c r="BK20" s="1">
-        <v>1367.850000</v>
+        <v>1367.85</v>
       </c>
       <c r="BL20" s="1">
-        <v>-359.847000</v>
+        <v>-359.84699999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>48406.653708</v>
+        <v>48406.653707999998</v>
       </c>
       <c r="BO20" s="1">
-        <v>13.446293</v>
+        <v>13.446293000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1482.720000</v>
+        <v>1482.72</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-584.758000</v>
+        <v>-584.75800000000004</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>48417.250207</v>
+        <v>48417.250206999997</v>
       </c>
       <c r="BT20" s="1">
-        <v>13.449236</v>
+        <v>13.449236000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1615.380000</v>
+        <v>1615.38</v>
       </c>
       <c r="BV20" s="1">
-        <v>-838.305000</v>
+        <v>-838.30499999999995</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>48428.253457</v>
+        <v>48428.253456999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>13.452293</v>
+        <v>13.452292999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1769.000000</v>
+        <v>1769</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1115.440000</v>
+        <v>-1115.44</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>48441.312126</v>
+        <v>48441.312125999997</v>
       </c>
       <c r="CD20" s="1">
-        <v>13.455920</v>
+        <v>13.455920000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>2190.950000</v>
+        <v>2190.9499999999998</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1784.520000</v>
+        <v>-1784.52</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>48267.379076</v>
+        <v>48267.379075999997</v>
       </c>
       <c r="B21" s="1">
         <v>13.407605</v>
       </c>
       <c r="C21" s="1">
-        <v>1144.170000</v>
+        <v>1144.17</v>
       </c>
       <c r="D21" s="1">
-        <v>-246.055000</v>
+        <v>-246.05500000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>48277.710247</v>
+        <v>48277.710247000003</v>
       </c>
       <c r="G21" s="1">
         <v>13.410475</v>
       </c>
       <c r="H21" s="1">
-        <v>1165.320000</v>
+        <v>1165.32</v>
       </c>
       <c r="I21" s="1">
-        <v>-208.368000</v>
+        <v>-208.36799999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>48288.180762</v>
+        <v>48288.180762000004</v>
       </c>
       <c r="L21" s="1">
-        <v>13.413384</v>
+        <v>13.413384000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>1194.150000</v>
+        <v>1194.1500000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-147.670000</v>
+        <v>-147.66999999999999</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>48298.744762</v>
+        <v>48298.744762000002</v>
       </c>
       <c r="Q21" s="1">
         <v>13.416318</v>
       </c>
       <c r="R21" s="1">
-        <v>1202.380000</v>
+        <v>1202.3800000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-125.753000</v>
+        <v>-125.753</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>48309.321246</v>
       </c>
       <c r="V21" s="1">
-        <v>13.419256</v>
+        <v>13.419256000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1210.620000</v>
+        <v>1210.6199999999999</v>
       </c>
       <c r="X21" s="1">
-        <v>-106.024000</v>
+        <v>-106.024</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>48320.127583</v>
+        <v>48320.127583000001</v>
       </c>
       <c r="AA21" s="1">
-        <v>13.422258</v>
+        <v>13.422257999999999</v>
       </c>
       <c r="AB21" s="1">
-        <v>1218.830000</v>
+        <v>1218.83</v>
       </c>
       <c r="AC21" s="1">
-        <v>-89.917600</v>
+        <v>-89.917599999999993</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>48330.540097</v>
+        <v>48330.540096999997</v>
       </c>
       <c r="AF21" s="1">
-        <v>13.425150</v>
+        <v>13.42515</v>
       </c>
       <c r="AG21" s="1">
-        <v>1223.760000</v>
+        <v>1223.76</v>
       </c>
       <c r="AH21" s="1">
-        <v>-85.691700</v>
+        <v>-85.691699999999997</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>48340.991796</v>
+        <v>48340.991796000002</v>
       </c>
       <c r="AK21" s="1">
         <v>13.428053</v>
       </c>
       <c r="AL21" s="1">
-        <v>1231.040000</v>
+        <v>1231.04</v>
       </c>
       <c r="AM21" s="1">
-        <v>-89.461700</v>
+        <v>-89.461699999999993</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>48351.862117</v>
+        <v>48351.862116999997</v>
       </c>
       <c r="AP21" s="1">
         <v>13.431073</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1239.070000</v>
+        <v>1239.07</v>
       </c>
       <c r="AR21" s="1">
-        <v>-101.731000</v>
+        <v>-101.73099999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>48362.957654</v>
+        <v>48362.957653999998</v>
       </c>
       <c r="AU21" s="1">
-        <v>13.434155</v>
+        <v>13.434155000000001</v>
       </c>
       <c r="AV21" s="1">
-        <v>1249.140000</v>
+        <v>1249.1400000000001</v>
       </c>
       <c r="AW21" s="1">
-        <v>-121.339000</v>
+        <v>-121.339</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>48374.356219</v>
+        <v>48374.356219000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>13.437321</v>
+        <v>13.437321000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1257.660000</v>
+        <v>1257.6600000000001</v>
       </c>
       <c r="BB21" s="1">
-        <v>-139.057000</v>
+        <v>-139.05699999999999</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>48385.365386</v>
+        <v>48385.365385999998</v>
       </c>
       <c r="BE21" s="1">
         <v>13.440379</v>
       </c>
       <c r="BF21" s="1">
-        <v>1297.890000</v>
+        <v>1297.8900000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-221.900000</v>
+        <v>-221.9</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>48396.449481</v>
+        <v>48396.449481000003</v>
       </c>
       <c r="BJ21" s="1">
         <v>13.443458</v>
       </c>
       <c r="BK21" s="1">
-        <v>1367.850000</v>
+        <v>1367.85</v>
       </c>
       <c r="BL21" s="1">
-        <v>-359.825000</v>
+        <v>-359.82499999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>48407.070844</v>
+        <v>48407.070844000002</v>
       </c>
       <c r="BO21" s="1">
-        <v>13.446409</v>
+        <v>13.446408999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1482.800000</v>
+        <v>1482.8</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-584.728000</v>
+        <v>-584.72799999999995</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>48417.677758</v>
+        <v>48417.677757999998</v>
       </c>
       <c r="BT21" s="1">
-        <v>13.449355</v>
+        <v>13.449355000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1615.110000</v>
+        <v>1615.11</v>
       </c>
       <c r="BV21" s="1">
-        <v>-838.369000</v>
+        <v>-838.36900000000003</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>48429.015822</v>
+        <v>48429.015822000001</v>
       </c>
       <c r="BY21" s="1">
-        <v>13.452504</v>
+        <v>13.452503999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1769.000000</v>
+        <v>1769</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1115.160000</v>
+        <v>-1115.1600000000001</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>48441.539294</v>
+        <v>48441.539294000002</v>
       </c>
       <c r="CD21" s="1">
         <v>13.455983</v>
       </c>
       <c r="CE21" s="1">
-        <v>2190.070000</v>
+        <v>2190.0700000000002</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1786.380000</v>
+        <v>-1786.38</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>48267.721317</v>
+        <v>48267.721317000003</v>
       </c>
       <c r="B22" s="1">
-        <v>13.407700</v>
+        <v>13.4077</v>
       </c>
       <c r="C22" s="1">
-        <v>1144.190000</v>
+        <v>1144.19</v>
       </c>
       <c r="D22" s="1">
-        <v>-245.676000</v>
+        <v>-245.67599999999999</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>48278.055431</v>
+        <v>48278.055431000001</v>
       </c>
       <c r="G22" s="1">
-        <v>13.410571</v>
+        <v>13.410570999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>1165.020000</v>
+        <v>1165.02</v>
       </c>
       <c r="I22" s="1">
-        <v>-208.506000</v>
+        <v>-208.506</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
         <v>48288.617736</v>
       </c>
       <c r="L22" s="1">
-        <v>13.413505</v>
+        <v>13.413505000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1194.150000</v>
+        <v>1194.1500000000001</v>
       </c>
       <c r="N22" s="1">
-        <v>-147.660000</v>
+        <v>-147.66</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>48299.160698</v>
       </c>
       <c r="Q22" s="1">
-        <v>13.416434</v>
+        <v>13.416434000000001</v>
       </c>
       <c r="R22" s="1">
-        <v>1202.320000</v>
+        <v>1202.32</v>
       </c>
       <c r="S22" s="1">
-        <v>-125.700000</v>
+        <v>-125.7</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>48309.600492</v>
+        <v>48309.600491999998</v>
       </c>
       <c r="V22" s="1">
         <v>13.419333</v>
       </c>
       <c r="W22" s="1">
-        <v>1210.580000</v>
+        <v>1210.58</v>
       </c>
       <c r="X22" s="1">
-        <v>-106.129000</v>
+        <v>-106.129</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>48320.475954</v>
+        <v>48320.475954000001</v>
       </c>
       <c r="AA22" s="1">
         <v>13.422354</v>
       </c>
       <c r="AB22" s="1">
-        <v>1218.840000</v>
+        <v>1218.8399999999999</v>
       </c>
       <c r="AC22" s="1">
-        <v>-89.891300</v>
+        <v>-89.891300000000001</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>48330.881842</v>
+        <v>48330.881842000003</v>
       </c>
       <c r="AF22" s="1">
         <v>13.425245</v>
       </c>
       <c r="AG22" s="1">
-        <v>1223.680000</v>
+        <v>1223.68</v>
       </c>
       <c r="AH22" s="1">
-        <v>-85.725400</v>
+        <v>-85.725399999999993</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>48341.343492</v>
@@ -5726,422 +6142,422 @@
         <v>13.428151</v>
       </c>
       <c r="AL22" s="1">
-        <v>1231.020000</v>
+        <v>1231.02</v>
       </c>
       <c r="AM22" s="1">
-        <v>-89.500600</v>
+        <v>-89.500600000000006</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>48352.225225</v>
+        <v>48352.225225000002</v>
       </c>
       <c r="AP22" s="1">
         <v>13.431174</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1239.080000</v>
+        <v>1239.08</v>
       </c>
       <c r="AR22" s="1">
-        <v>-101.720000</v>
+        <v>-101.72</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
         <v>48363.695172</v>
       </c>
       <c r="AU22" s="1">
-        <v>13.434360</v>
+        <v>13.43436</v>
       </c>
       <c r="AV22" s="1">
-        <v>1249.130000</v>
+        <v>1249.1300000000001</v>
       </c>
       <c r="AW22" s="1">
-        <v>-121.371000</v>
+        <v>-121.371</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>48374.710823</v>
+        <v>48374.710823000001</v>
       </c>
       <c r="AZ22" s="1">
-        <v>13.437420</v>
+        <v>13.437419999999999</v>
       </c>
       <c r="BA22" s="1">
-        <v>1257.630000</v>
+        <v>1257.6300000000001</v>
       </c>
       <c r="BB22" s="1">
-        <v>-139.048000</v>
+        <v>-139.048</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>48385.723001</v>
+        <v>48385.723000999998</v>
       </c>
       <c r="BE22" s="1">
         <v>13.440479</v>
       </c>
       <c r="BF22" s="1">
-        <v>1297.930000</v>
+        <v>1297.93</v>
       </c>
       <c r="BG22" s="1">
-        <v>-221.902000</v>
+        <v>-221.90199999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>48396.825450</v>
+        <v>48396.825449999997</v>
       </c>
       <c r="BJ22" s="1">
-        <v>13.443563</v>
+        <v>13.443562999999999</v>
       </c>
       <c r="BK22" s="1">
-        <v>1367.840000</v>
+        <v>1367.84</v>
       </c>
       <c r="BL22" s="1">
-        <v>-359.844000</v>
+        <v>-359.84399999999999</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>48407.775131</v>
+        <v>48407.775131000002</v>
       </c>
       <c r="BO22" s="1">
-        <v>13.446604</v>
+        <v>13.446604000000001</v>
       </c>
       <c r="BP22" s="1">
-        <v>1482.800000</v>
+        <v>1482.8</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-584.703000</v>
+        <v>-584.70299999999997</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>48418.427710</v>
+        <v>48418.427710000004</v>
       </c>
       <c r="BT22" s="1">
-        <v>13.449563</v>
+        <v>13.449562999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1615.110000</v>
+        <v>1615.11</v>
       </c>
       <c r="BV22" s="1">
-        <v>-838.727000</v>
+        <v>-838.72699999999998</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>48429.127939</v>
+        <v>48429.127938999998</v>
       </c>
       <c r="BY22" s="1">
         <v>13.452536</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1768.910000</v>
+        <v>1768.91</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1115.190000</v>
+        <v>-1115.19</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>48442.054142</v>
+        <v>48442.054142000001</v>
       </c>
       <c r="CD22" s="1">
-        <v>13.456126</v>
+        <v>13.456125999999999</v>
       </c>
       <c r="CE22" s="1">
-        <v>2192.170000</v>
+        <v>2192.17</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1786.800000</v>
+        <v>-1786.8</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>48268.064029</v>
+        <v>48268.064029000001</v>
       </c>
       <c r="B23" s="1">
-        <v>13.407796</v>
+        <v>13.407795999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1144.230000</v>
+        <v>1144.23</v>
       </c>
       <c r="D23" s="1">
-        <v>-245.888000</v>
+        <v>-245.88800000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>48278.474055</v>
+        <v>48278.474054999999</v>
       </c>
       <c r="G23" s="1">
-        <v>13.410687</v>
+        <v>13.410686999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1165.190000</v>
+        <v>1165.19</v>
       </c>
       <c r="I23" s="1">
-        <v>-208.628000</v>
+        <v>-208.62799999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>48288.895000</v>
+        <v>48288.894999999997</v>
       </c>
       <c r="L23" s="1">
         <v>13.413582</v>
       </c>
       <c r="M23" s="1">
-        <v>1194.090000</v>
+        <v>1194.0899999999999</v>
       </c>
       <c r="N23" s="1">
-        <v>-147.519000</v>
+        <v>-147.51900000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>48299.452346</v>
+        <v>48299.452345999998</v>
       </c>
       <c r="Q23" s="1">
         <v>13.416515</v>
       </c>
       <c r="R23" s="1">
-        <v>1202.380000</v>
+        <v>1202.3800000000001</v>
       </c>
       <c r="S23" s="1">
-        <v>-125.781000</v>
+        <v>-125.78100000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>48309.944748</v>
+        <v>48309.944748000002</v>
       </c>
       <c r="V23" s="1">
-        <v>13.419429</v>
+        <v>13.419428999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>1210.640000</v>
+        <v>1210.6400000000001</v>
       </c>
       <c r="X23" s="1">
-        <v>-105.966000</v>
+        <v>-105.96599999999999</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>48320.825474</v>
+        <v>48320.825473999997</v>
       </c>
       <c r="AA23" s="1">
         <v>13.422452</v>
       </c>
       <c r="AB23" s="1">
-        <v>1218.840000</v>
+        <v>1218.8399999999999</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.811700</v>
+        <v>-89.811700000000002</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>48331.227057</v>
+        <v>48331.227056999996</v>
       </c>
       <c r="AF23" s="1">
         <v>13.425341</v>
       </c>
       <c r="AG23" s="1">
-        <v>1223.760000</v>
+        <v>1223.76</v>
       </c>
       <c r="AH23" s="1">
-        <v>-85.713200</v>
+        <v>-85.713200000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>48342.037858</v>
+        <v>48342.037858000003</v>
       </c>
       <c r="AK23" s="1">
-        <v>13.428344</v>
+        <v>13.428343999999999</v>
       </c>
       <c r="AL23" s="1">
-        <v>1231.050000</v>
+        <v>1231.05</v>
       </c>
       <c r="AM23" s="1">
-        <v>-89.493000</v>
+        <v>-89.492999999999995</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>48352.944389</v>
+        <v>48352.944388999997</v>
       </c>
       <c r="AP23" s="1">
-        <v>13.431373</v>
+        <v>13.431373000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1239.090000</v>
+        <v>1239.0899999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-101.702000</v>
+        <v>-101.702</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>48364.078613</v>
+        <v>48364.078612999998</v>
       </c>
       <c r="AU23" s="1">
         <v>13.434466</v>
       </c>
       <c r="AV23" s="1">
-        <v>1249.140000</v>
+        <v>1249.1400000000001</v>
       </c>
       <c r="AW23" s="1">
-        <v>-121.372000</v>
+        <v>-121.372</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>48375.069945</v>
+        <v>48375.069945000003</v>
       </c>
       <c r="AZ23" s="1">
         <v>13.437519</v>
       </c>
       <c r="BA23" s="1">
-        <v>1257.630000</v>
+        <v>1257.6300000000001</v>
       </c>
       <c r="BB23" s="1">
-        <v>-139.054000</v>
+        <v>-139.054</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>48386.084583</v>
+        <v>48386.084583000003</v>
       </c>
       <c r="BE23" s="1">
         <v>13.440579</v>
       </c>
       <c r="BF23" s="1">
-        <v>1297.930000</v>
+        <v>1297.93</v>
       </c>
       <c r="BG23" s="1">
-        <v>-221.906000</v>
+        <v>-221.90600000000001</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>48397.502986</v>
       </c>
       <c r="BJ23" s="1">
-        <v>13.443751</v>
+        <v>13.443751000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1367.840000</v>
+        <v>1367.84</v>
       </c>
       <c r="BL23" s="1">
-        <v>-359.853000</v>
+        <v>-359.85300000000001</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>48407.890730</v>
+        <v>48407.890729999999</v>
       </c>
       <c r="BO23" s="1">
         <v>13.446636</v>
       </c>
       <c r="BP23" s="1">
-        <v>1482.740000</v>
+        <v>1482.74</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-584.692000</v>
+        <v>-584.69200000000001</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>48418.554190</v>
+        <v>48418.554190000003</v>
       </c>
       <c r="BT23" s="1">
         <v>13.449598</v>
       </c>
       <c r="BU23" s="1">
-        <v>1615.070000</v>
+        <v>1615.07</v>
       </c>
       <c r="BV23" s="1">
-        <v>-838.873000</v>
+        <v>-838.87300000000005</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>48429.567395</v>
+        <v>48429.567394999998</v>
       </c>
       <c r="BY23" s="1">
         <v>13.452658</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1768.890000</v>
+        <v>1768.89</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1115.440000</v>
+        <v>-1115.44</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
         <v>48442.575933</v>
       </c>
       <c r="CD23" s="1">
-        <v>13.456271</v>
+        <v>13.456270999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>2191.780000</v>
+        <v>2191.7800000000002</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1784.930000</v>
+        <v>-1784.93</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>48268.488595</v>
+        <v>48268.488595000003</v>
       </c>
       <c r="B24" s="1">
-        <v>13.407913</v>
+        <v>13.407913000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1144.040000</v>
+        <v>1144.04</v>
       </c>
       <c r="D24" s="1">
-        <v>-245.722000</v>
+        <v>-245.72200000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
         <v>48278.751847</v>
@@ -6150,58 +6566,58 @@
         <v>13.410764</v>
       </c>
       <c r="H24" s="1">
-        <v>1165.270000</v>
+        <v>1165.27</v>
       </c>
       <c r="I24" s="1">
-        <v>-207.757000</v>
+        <v>-207.75700000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>48289.239720</v>
+        <v>48289.239719999998</v>
       </c>
       <c r="L24" s="1">
-        <v>13.413678</v>
+        <v>13.413678000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1194.010000</v>
+        <v>1194.01</v>
       </c>
       <c r="N24" s="1">
-        <v>-147.667000</v>
+        <v>-147.667</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>48299.801033</v>
+        <v>48299.801033000003</v>
       </c>
       <c r="Q24" s="1">
         <v>13.416611</v>
       </c>
       <c r="R24" s="1">
-        <v>1202.390000</v>
+        <v>1202.3900000000001</v>
       </c>
       <c r="S24" s="1">
-        <v>-125.750000</v>
+        <v>-125.75</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>48310.287452</v>
+        <v>48310.287451999997</v>
       </c>
       <c r="V24" s="1">
-        <v>13.419524</v>
+        <v>13.419523999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>1210.750000</v>
+        <v>1210.75</v>
       </c>
       <c r="X24" s="1">
-        <v>-106.150000</v>
+        <v>-106.15</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>48321.523856</v>
@@ -6210,13 +6626,13 @@
         <v>13.422646</v>
       </c>
       <c r="AB24" s="1">
-        <v>1218.820000</v>
+        <v>1218.82</v>
       </c>
       <c r="AC24" s="1">
-        <v>-89.913000</v>
+        <v>-89.912999999999997</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
         <v>48331.914547</v>
@@ -6225,210 +6641,210 @@
         <v>13.425532</v>
       </c>
       <c r="AG24" s="1">
-        <v>1223.710000</v>
+        <v>1223.71</v>
       </c>
       <c r="AH24" s="1">
-        <v>-85.719800</v>
+        <v>-85.719800000000006</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>48342.388034</v>
+        <v>48342.388034000003</v>
       </c>
       <c r="AK24" s="1">
-        <v>13.428441</v>
+        <v>13.428440999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>1231.030000</v>
+        <v>1231.03</v>
       </c>
       <c r="AM24" s="1">
-        <v>-89.485000</v>
+        <v>-89.484999999999999</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>48353.303525</v>
+        <v>48353.303525000003</v>
       </c>
       <c r="AP24" s="1">
         <v>13.431473</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1239.070000</v>
+        <v>1239.07</v>
       </c>
       <c r="AR24" s="1">
-        <v>-101.730000</v>
+        <v>-101.73</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>48364.442148</v>
+        <v>48364.442148000002</v>
       </c>
       <c r="AU24" s="1">
-        <v>13.434567</v>
+        <v>13.434566999999999</v>
       </c>
       <c r="AV24" s="1">
-        <v>1249.120000</v>
+        <v>1249.1199999999999</v>
       </c>
       <c r="AW24" s="1">
-        <v>-121.365000</v>
+        <v>-121.36499999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>48375.741050</v>
+        <v>48375.741049999997</v>
       </c>
       <c r="AZ24" s="1">
         <v>13.437706</v>
       </c>
       <c r="BA24" s="1">
-        <v>1257.660000</v>
+        <v>1257.6600000000001</v>
       </c>
       <c r="BB24" s="1">
-        <v>-139.056000</v>
+        <v>-139.05600000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>48386.758647</v>
+        <v>48386.758647000002</v>
       </c>
       <c r="BE24" s="1">
         <v>13.440766</v>
       </c>
       <c r="BF24" s="1">
-        <v>1297.920000</v>
+        <v>1297.92</v>
       </c>
       <c r="BG24" s="1">
-        <v>-221.877000</v>
+        <v>-221.87700000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>48397.610120</v>
+        <v>48397.610119999998</v>
       </c>
       <c r="BJ24" s="1">
         <v>13.443781</v>
       </c>
       <c r="BK24" s="1">
-        <v>1367.840000</v>
+        <v>1367.84</v>
       </c>
       <c r="BL24" s="1">
-        <v>-359.850000</v>
+        <v>-359.85</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>48408.313290</v>
+        <v>48408.313289999998</v>
       </c>
       <c r="BO24" s="1">
         <v>13.446754</v>
       </c>
       <c r="BP24" s="1">
-        <v>1482.770000</v>
+        <v>1482.77</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-584.697000</v>
+        <v>-584.697</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
         <v>48418.966364</v>
       </c>
       <c r="BT24" s="1">
-        <v>13.449713</v>
+        <v>13.449712999999999</v>
       </c>
       <c r="BU24" s="1">
-        <v>1615.100000</v>
+        <v>1615.1</v>
       </c>
       <c r="BV24" s="1">
-        <v>-839.143000</v>
+        <v>-839.14300000000003</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>48429.987966</v>
+        <v>48429.987966000001</v>
       </c>
       <c r="BY24" s="1">
         <v>13.452774</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1769.150000</v>
+        <v>1769.15</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1115.240000</v>
+        <v>-1115.24</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>48443.090285</v>
+        <v>48443.090284999998</v>
       </c>
       <c r="CD24" s="1">
-        <v>13.456414</v>
+        <v>13.456414000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>2192.160000</v>
+        <v>2192.16</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1784.890000</v>
+        <v>-1784.89</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>48268.763392</v>
+        <v>48268.763392000001</v>
       </c>
       <c r="B25" s="1">
-        <v>13.407990</v>
+        <v>13.40799</v>
       </c>
       <c r="C25" s="1">
-        <v>1144.250000</v>
+        <v>1144.25</v>
       </c>
       <c r="D25" s="1">
-        <v>-245.725000</v>
+        <v>-245.72499999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>48279.098055</v>
+        <v>48279.098055000002</v>
       </c>
       <c r="G25" s="1">
-        <v>13.410861</v>
+        <v>13.410861000000001</v>
       </c>
       <c r="H25" s="1">
-        <v>1165.060000</v>
+        <v>1165.06</v>
       </c>
       <c r="I25" s="1">
-        <v>-208.351000</v>
+        <v>-208.351</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>48289.583979</v>
+        <v>48289.583979000003</v>
       </c>
       <c r="L25" s="1">
-        <v>13.413773</v>
+        <v>13.413773000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>1193.600000</v>
+        <v>1193.5999999999999</v>
       </c>
       <c r="N25" s="1">
-        <v>-146.262000</v>
+        <v>-146.262</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
         <v>48300.148729</v>
@@ -6437,420 +6853,420 @@
         <v>13.416708</v>
       </c>
       <c r="R25" s="1">
-        <v>1202.440000</v>
+        <v>1202.44</v>
       </c>
       <c r="S25" s="1">
-        <v>-125.739000</v>
+        <v>-125.739</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>48310.973916</v>
+        <v>48310.973916000003</v>
       </c>
       <c r="V25" s="1">
         <v>13.419715</v>
       </c>
       <c r="W25" s="1">
-        <v>1210.600000</v>
+        <v>1210.5999999999999</v>
       </c>
       <c r="X25" s="1">
-        <v>-106.011000</v>
+        <v>-106.011</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>48321.871552</v>
+        <v>48321.871551999997</v>
       </c>
       <c r="AA25" s="1">
         <v>13.422742</v>
       </c>
       <c r="AB25" s="1">
-        <v>1218.830000</v>
+        <v>1218.83</v>
       </c>
       <c r="AC25" s="1">
-        <v>-89.855600</v>
+        <v>-89.855599999999995</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>48332.257757</v>
+        <v>48332.257756999999</v>
       </c>
       <c r="AF25" s="1">
         <v>13.425627</v>
       </c>
       <c r="AG25" s="1">
-        <v>1223.720000</v>
+        <v>1223.72</v>
       </c>
       <c r="AH25" s="1">
-        <v>-85.718400</v>
+        <v>-85.718400000000003</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>48342.737714</v>
+        <v>48342.737714000003</v>
       </c>
       <c r="AK25" s="1">
         <v>13.428538</v>
       </c>
       <c r="AL25" s="1">
-        <v>1230.990000</v>
+        <v>1230.99</v>
       </c>
       <c r="AM25" s="1">
-        <v>-89.482700</v>
+        <v>-89.482699999999994</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>48353.974083</v>
+        <v>48353.974083000001</v>
       </c>
       <c r="AP25" s="1">
         <v>13.431659</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1239.120000</v>
+        <v>1239.1199999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-101.740000</v>
+        <v>-101.74</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>48365.116212</v>
+        <v>48365.116212000001</v>
       </c>
       <c r="AU25" s="1">
-        <v>13.434755</v>
+        <v>13.434754999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1249.160000</v>
+        <v>1249.1600000000001</v>
       </c>
       <c r="AW25" s="1">
-        <v>-121.365000</v>
+        <v>-121.36499999999999</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>48376.179476</v>
+        <v>48376.179475999998</v>
       </c>
       <c r="AZ25" s="1">
         <v>13.437828</v>
       </c>
       <c r="BA25" s="1">
-        <v>1257.650000</v>
+        <v>1257.6500000000001</v>
       </c>
       <c r="BB25" s="1">
-        <v>-139.056000</v>
+        <v>-139.05600000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>48387.197110</v>
+        <v>48387.197110000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>13.440888</v>
+        <v>13.440887999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1297.920000</v>
+        <v>1297.92</v>
       </c>
       <c r="BG25" s="1">
-        <v>-221.890000</v>
+        <v>-221.89</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>48397.974716</v>
+        <v>48397.974715999997</v>
       </c>
       <c r="BJ25" s="1">
         <v>13.443882</v>
       </c>
       <c r="BK25" s="1">
-        <v>1367.850000</v>
+        <v>1367.85</v>
       </c>
       <c r="BL25" s="1">
-        <v>-359.813000</v>
+        <v>-359.81299999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>48408.712074</v>
+        <v>48408.712074000003</v>
       </c>
       <c r="BO25" s="1">
         <v>13.446864</v>
       </c>
       <c r="BP25" s="1">
-        <v>1482.760000</v>
+        <v>1482.76</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-584.702000</v>
+        <v>-584.702</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>48419.392465</v>
+        <v>48419.392464999997</v>
       </c>
       <c r="BT25" s="1">
         <v>13.449831</v>
       </c>
       <c r="BU25" s="1">
-        <v>1615.330000</v>
+        <v>1615.33</v>
       </c>
       <c r="BV25" s="1">
-        <v>-839.273000</v>
+        <v>-839.27300000000002</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>48430.409565</v>
+        <v>48430.409565000002</v>
       </c>
       <c r="BY25" s="1">
         <v>13.452892</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1769.120000</v>
+        <v>1769.12</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1115.320000</v>
+        <v>-1115.32</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>48443.641837</v>
+        <v>48443.641837000003</v>
       </c>
       <c r="CD25" s="1">
         <v>13.456567</v>
       </c>
       <c r="CE25" s="1">
-        <v>2192.160000</v>
+        <v>2192.16</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1785.690000</v>
+        <v>-1785.69</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>48269.102146</v>
+        <v>48269.102145999997</v>
       </c>
       <c r="B26" s="1">
-        <v>13.408084</v>
+        <v>13.408084000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1143.930000</v>
+        <v>1143.93</v>
       </c>
       <c r="D26" s="1">
-        <v>-246.007000</v>
+        <v>-246.00700000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>48279.441784</v>
+        <v>48279.441784000002</v>
       </c>
       <c r="G26" s="1">
-        <v>13.410956</v>
+        <v>13.410956000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>1164.240000</v>
+        <v>1164.24</v>
       </c>
       <c r="I26" s="1">
-        <v>-208.294000</v>
+        <v>-208.29400000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>48290.278838</v>
+        <v>48290.278837999998</v>
       </c>
       <c r="L26" s="1">
         <v>13.413966</v>
       </c>
       <c r="M26" s="1">
-        <v>1193.700000</v>
+        <v>1193.7</v>
       </c>
       <c r="N26" s="1">
-        <v>-146.216000</v>
+        <v>-146.21600000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>48300.848089</v>
+        <v>48300.848088999999</v>
       </c>
       <c r="Q26" s="1">
         <v>13.416902</v>
       </c>
       <c r="R26" s="1">
-        <v>1202.360000</v>
+        <v>1202.3599999999999</v>
       </c>
       <c r="S26" s="1">
-        <v>-125.795000</v>
+        <v>-125.795</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>48311.317674</v>
+        <v>48311.317673999998</v>
       </c>
       <c r="V26" s="1">
-        <v>13.419810</v>
+        <v>13.41981</v>
       </c>
       <c r="W26" s="1">
-        <v>1210.640000</v>
+        <v>1210.6400000000001</v>
       </c>
       <c r="X26" s="1">
-        <v>-105.918000</v>
+        <v>-105.91800000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>48322.219213</v>
+        <v>48322.219212999997</v>
       </c>
       <c r="AA26" s="1">
         <v>13.422839</v>
       </c>
       <c r="AB26" s="1">
-        <v>1218.760000</v>
+        <v>1218.76</v>
       </c>
       <c r="AC26" s="1">
-        <v>-89.822300</v>
+        <v>-89.822299999999998</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>48332.600511</v>
+        <v>48332.600510999997</v>
       </c>
       <c r="AF26" s="1">
         <v>13.425722</v>
       </c>
       <c r="AG26" s="1">
-        <v>1223.750000</v>
+        <v>1223.75</v>
       </c>
       <c r="AH26" s="1">
-        <v>-85.684800</v>
+        <v>-85.684799999999996</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>48343.395442</v>
+        <v>48343.395442000001</v>
       </c>
       <c r="AK26" s="1">
-        <v>13.428721</v>
+        <v>13.428720999999999</v>
       </c>
       <c r="AL26" s="1">
-        <v>1231.050000</v>
+        <v>1231.05</v>
       </c>
       <c r="AM26" s="1">
-        <v>-89.456900</v>
+        <v>-89.456900000000005</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>48354.409073</v>
+        <v>48354.409073000003</v>
       </c>
       <c r="AP26" s="1">
-        <v>13.431780</v>
+        <v>13.43178</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1239.100000</v>
+        <v>1239.0999999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-101.704000</v>
+        <v>-101.70399999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>48365.569554</v>
+        <v>48365.569554000002</v>
       </c>
       <c r="AU26" s="1">
-        <v>13.434880</v>
+        <v>13.43488</v>
       </c>
       <c r="AV26" s="1">
-        <v>1249.130000</v>
+        <v>1249.1300000000001</v>
       </c>
       <c r="AW26" s="1">
-        <v>-121.349000</v>
+        <v>-121.349</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>48376.540565</v>
+        <v>48376.540565000003</v>
       </c>
       <c r="AZ26" s="1">
-        <v>13.437928</v>
+        <v>13.437927999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1257.660000</v>
+        <v>1257.6600000000001</v>
       </c>
       <c r="BB26" s="1">
-        <v>-139.035000</v>
+        <v>-139.035</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>48387.556215</v>
+        <v>48387.556214999997</v>
       </c>
       <c r="BE26" s="1">
-        <v>13.440988</v>
+        <v>13.440988000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1297.920000</v>
+        <v>1297.92</v>
       </c>
       <c r="BG26" s="1">
-        <v>-221.904000</v>
+        <v>-221.904</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>48398.351653</v>
+        <v>48398.351652999998</v>
       </c>
       <c r="BJ26" s="1">
         <v>13.443987</v>
       </c>
       <c r="BK26" s="1">
-        <v>1367.860000</v>
+        <v>1367.86</v>
       </c>
       <c r="BL26" s="1">
-        <v>-359.860000</v>
+        <v>-359.86</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>48409.133212</v>
+        <v>48409.133212000001</v>
       </c>
       <c r="BO26" s="1">
-        <v>13.446981</v>
+        <v>13.446980999999999</v>
       </c>
       <c r="BP26" s="1">
-        <v>1482.790000</v>
+        <v>1482.79</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-584.708000</v>
+        <v>-584.70799999999997</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
         <v>48419.827952</v>
@@ -6859,45 +7275,46 @@
         <v>13.449952</v>
       </c>
       <c r="BU26" s="1">
-        <v>1615.490000</v>
+        <v>1615.49</v>
       </c>
       <c r="BV26" s="1">
-        <v>-839.324000</v>
+        <v>-839.32399999999996</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>48430.845575</v>
+        <v>48430.845574999999</v>
       </c>
       <c r="BY26" s="1">
         <v>13.453013</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1769.000000</v>
+        <v>1769</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1115.270000</v>
+        <v>-1115.27</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>48444.172555</v>
+        <v>48444.172554999997</v>
       </c>
       <c r="CD26" s="1">
-        <v>13.456715</v>
+        <v>13.456715000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>2190.600000</v>
+        <v>2190.6</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1784.900000</v>
+        <v>-1784.9</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>